--- a/Review_notes.xlsx
+++ b/Review_notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/venkatapraveenkandimalla/praveen_files/cp_coding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8DCE43-5DA0-2A4F-B9A7-603632A86F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C99698F-15BA-1743-8B12-53B4EB6B64BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{D8908FDD-206E-2A41-BB5A-F6564A5F7783}"/>
   </bookViews>
@@ -419,7 +419,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Review_notes.xlsx
+++ b/Review_notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/venkatapraveenkandimalla/praveen_files/cp_coding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C99698F-15BA-1743-8B12-53B4EB6B64BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DC648F-C9D2-A04C-A7E7-ADCE21C7AFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{D8908FDD-206E-2A41-BB5A-F6564A5F7783}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Question</t>
   </si>
@@ -54,6 +54,43 @@
   </si>
   <si>
     <t>My Solution Link</t>
+  </si>
+  <si>
+    <t>HashMap</t>
+  </si>
+  <si>
+    <t>Two Sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/two-sum/</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/leetcode/two_sum.py</t>
+  </si>
+  <si>
+    <t>1.key checking in hashmap -&gt; for i in hm_variable
+instead of "for I in hm_variable.keys()"</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Robot Bounded In Circle</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/robot-bounded-in-circle/</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/leetcode/robot_bounded_in_circle.py</t>
+  </si>
+  <si>
+    <t>1.Use HashMap to store the each value and checking for compliment value at same time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Common math problem in which face direction changes when robot moves left or right
+2.If robot is at initial position after one round thenit is in loop 
+3.Or if it's direction is not same as initial direction then the robot will be in loop (mathematically proved)
+</t>
   </si>
 </sst>
 </file>
@@ -74,12 +111,24 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -94,13 +143,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -416,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ECFCBC7-B6D8-5D40-8315-E80063A1AE48}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -452,6 +515,44 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:6" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="7" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Review_notes.xlsx
+++ b/Review_notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/venkatapraveenkandimalla/praveen_files/cp_coding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DC648F-C9D2-A04C-A7E7-ADCE21C7AFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421C0FAE-785A-0749-881A-677C7C8B0B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{D8908FDD-206E-2A41-BB5A-F6564A5F7783}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Question</t>
   </si>
@@ -91,6 +91,34 @@
 2.If robot is at initial position after one round thenit is in loop 
 3.Or if it's direction is not same as initial direction then the robot will be in loop (mathematically proved)
 </t>
+  </si>
+  <si>
+    <t>1. multiple assignment -&gt; (a,b)=(c,d)=(0,0) in python</t>
+  </si>
+  <si>
+    <t>HashMap
+Sort</t>
+  </si>
+  <si>
+    <t>ReOrder Data In Log Files</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reorder-data-in-log-files/</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/leetcode/reorder_data_in_log_files.py</t>
+  </si>
+  <si>
+    <t>1.split function -&gt; x.split('split_char',maxsplit='int_how_many_splits')
+2.In order to sort a dictionary based on string just sort its key list
+keys=list(dict.keys())
+keys.sort()
+3.dict.keys() should always be converted to list
+4.other way of sorting dictionary by particular key or value is 
+sorted(dict_data.items(),key=lambda x:x[0])</t>
+  </si>
+  <si>
+    <t>General manipulations on HashMap</t>
   </si>
 </sst>
 </file>
@@ -479,20 +507,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ECFCBC7-B6D8-5D40-8315-E80063A1AE48}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42" style="1" customWidth="1"/>
+    <col min="3" max="3" width="74.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="91.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="100" style="1" customWidth="1"/>
-    <col min="6" max="6" width="48.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="70.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.2">
@@ -551,7 +579,29 @@
       <c r="E3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="7" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Review_notes.xlsx
+++ b/Review_notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/venkatapraveenkandimalla/praveen_files/cp_coding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421C0FAE-785A-0749-881A-677C7C8B0B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F49668-AC28-D54B-BECA-A8F4667E3A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{D8908FDD-206E-2A41-BB5A-F6564A5F7783}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Question</t>
   </si>
@@ -109,23 +109,43 @@
     <t>https://github.com/kandycrush7717/cp_coding/blob/main/leetcode/reorder_data_in_log_files.py</t>
   </si>
   <si>
-    <t>1.split function -&gt; x.split('split_char',maxsplit='int_how_many_splits')
+    <t>General manipulations on HashMap</t>
+  </si>
+  <si>
+    <t>LRU Cache
+DoubleLinkedList
+HashMap</t>
+  </si>
+  <si>
+    <t>LRU Cache</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lru-cache/</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/leetcode/lru_cache.py</t>
+  </si>
+  <si>
+    <t>1.Internal Implemenataion of LRU Cache (doublelinkedlist,hashmap)
+2.Implelemtation of DoubleLinkedList class and LRU Cache class
+3.General implementation of class and its data members,functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.split function -&gt; x.split('split_char',maxsplit='int_how_many_splits')
 2.In order to sort a dictionary based on string just sort its key list
 keys=list(dict.keys())
 keys.sort()
 3.dict.keys() should always be converted to list
 4.other way of sorting dictionary by particular key or value is 
-sorted(dict_data.items(),key=lambda x:x[0])</t>
-  </si>
-  <si>
-    <t>General manipulations on HashMap</t>
+dict(sorted(dict_data.items(),key=lambda x:x[0]))
+5.Always remember to cast when using sorted() </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -138,8 +158,16 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,6 +186,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -168,10 +202,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -193,8 +228,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -507,15 +559,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ECFCBC7-B6D8-5D40-8315-E80063A1AE48}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="74.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="91.5" style="1" customWidth="1"/>
@@ -543,67 +595,122 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="7" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="4" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" ht="170" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+    <row r="6" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" s="7" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:6" s="7" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="B9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="6"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C9" r:id="rId1" xr:uid="{D6F9442B-F3D2-CA4D-BA00-BF3A3A3D43F3}"/>
+    <hyperlink ref="D9" r:id="rId2" xr:uid="{DEF783E1-A569-904E-9A7C-B7969791E470}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{2AA5297C-E158-5F48-92C5-7D3B66A154F9}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{A702CCAB-E81D-694C-A004-8508F12942CC}"/>
+    <hyperlink ref="C3" r:id="rId5" xr:uid="{188A261F-D376-CE42-8C7D-C459393C017D}"/>
+    <hyperlink ref="D3" r:id="rId6" xr:uid="{6B8B5803-33CB-6541-B8D9-C9D82203E3BA}"/>
+    <hyperlink ref="D5" r:id="rId7" xr:uid="{9D8F1460-A213-AB48-98CD-24F83018B340}"/>
+    <hyperlink ref="D7" r:id="rId8" xr:uid="{0051B861-8E15-634C-8154-3E09338CBE87}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Review_notes.xlsx
+++ b/Review_notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/venkatapraveenkandimalla/praveen_files/cp_coding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F49668-AC28-D54B-BECA-A8F4667E3A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835EA9B0-1E64-9C46-A38E-EC52CCAFB205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{D8908FDD-206E-2A41-BB5A-F6564A5F7783}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Question</t>
   </si>
@@ -139,6 +139,29 @@
 4.other way of sorting dictionary by particular key or value is 
 dict(sorted(dict_data.items(),key=lambda x:x[0]))
 5.Always remember to cast when using sorted() </t>
+  </si>
+  <si>
+    <t>HashMap
+RegularExpression</t>
+  </si>
+  <si>
+    <t>Most Common Word</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/most-common-word/</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/leetcode/most_common_word.py</t>
+  </si>
+  <si>
+    <t>1.Implemention word_count using hashmap
+2.sorting hashmap by value
+3.splitting string using multiple characters(using regular expressions)</t>
+  </si>
+  <si>
+    <t>1.splitting using re -&gt; re.split(''' list of characters seperated by '|' ''',text)
+2.sorting dictionary by value and in decending oreder -&gt;dict(sorted(dict.items(),key=lambda x:x[1],reverse=True))
+3.Always Typecast to datatype when using sorted()</t>
   </si>
 </sst>
 </file>
@@ -559,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ECFCBC7-B6D8-5D40-8315-E80063A1AE48}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -572,7 +595,7 @@
     <col min="3" max="3" width="74.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="91.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="100" style="1" customWidth="1"/>
-    <col min="6" max="6" width="70.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="85.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.2">
@@ -699,6 +722,26 @@
         <v>27</v>
       </c>
       <c r="F9" s="6"/>
+    </row>
+    <row r="11" spans="1:6" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -710,6 +753,8 @@
     <hyperlink ref="D3" r:id="rId6" xr:uid="{6B8B5803-33CB-6541-B8D9-C9D82203E3BA}"/>
     <hyperlink ref="D5" r:id="rId7" xr:uid="{9D8F1460-A213-AB48-98CD-24F83018B340}"/>
     <hyperlink ref="D7" r:id="rId8" xr:uid="{0051B861-8E15-634C-8154-3E09338CBE87}"/>
+    <hyperlink ref="C11" r:id="rId9" xr:uid="{D8A53824-15FE-9A43-A208-192B9D317050}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{DA2C761E-E55C-1249-8F1F-EC4EDE482DB4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Review_notes.xlsx
+++ b/Review_notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/venkatapraveenkandimalla/praveen_files/cp_coding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835EA9B0-1E64-9C46-A38E-EC52CCAFB205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFA08F5-6011-C540-80AE-0DDCE8E8E776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{D8908FDD-206E-2A41-BB5A-F6564A5F7783}"/>
   </bookViews>
@@ -584,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ECFCBC7-B6D8-5D40-8315-E80063A1AE48}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Review_notes.xlsx
+++ b/Review_notes.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/venkatapraveenkandimalla/praveen_files/cp_coding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFA08F5-6011-C540-80AE-0DDCE8E8E776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBCB8DE-4C90-5C43-9AF0-A0C76C71A84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{D8908FDD-206E-2A41-BB5A-F6564A5F7783}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="105">
   <si>
     <t>Question</t>
   </si>
@@ -162,6 +162,225 @@
     <t>1.splitting using re -&gt; re.split(''' list of characters seperated by '|' ''',text)
 2.sorting dictionary by value and in decending oreder -&gt;dict(sorted(dict.items(),key=lambda x:x[1],reverse=True))
 3.Always Typecast to datatype when using sorted()</t>
+  </si>
+  <si>
+    <t>Tuple
+sort</t>
+  </si>
+  <si>
+    <t>K Closest Points To Origin</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/k-closest-points-to-origin/</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/leetcode/k_closest_points_to_origin.py</t>
+  </si>
+  <si>
+    <t>1.adding distance and point as tuple in a list
+2.sort the list based on distance</t>
+  </si>
+  <si>
+    <t>1.float cannot be added as key to dictionary (due to variable length)
+2.tuple can be used to store key and its corrosponding value only if no retrival in O(1) timecomplexity is needed</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>AMAZON</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Number Mirror</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP0TO101/problems/START01</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/number_mirror.py</t>
+  </si>
+  <si>
+    <t>1.Taking input and writing output</t>
+  </si>
+  <si>
+    <t>Arithmetic</t>
+  </si>
+  <si>
+    <t>Add Two Numbers</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP0TO101/problems/FLOW010</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/add_two_numbers.py</t>
+  </si>
+  <si>
+    <t>Float Manipulation
+precision</t>
+  </si>
+  <si>
+    <t>ATM</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/atm.py</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP0TO101/problems/HS08TEST</t>
+  </si>
+  <si>
+    <t>1.Adding two numbers</t>
+  </si>
+  <si>
+    <t>1.Conditional float comparision</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/python-string-format-method/</t>
+  </si>
+  <si>
+    <t>Operators</t>
+  </si>
+  <si>
+    <t>Chef and Operators</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP0TO101/problems/CHOPRT</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/chef_and_operators.py</t>
+  </si>
+  <si>
+    <t>1.Handling Operators</t>
+  </si>
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>Enrmous Input Test</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP0TO101/problems/INTEST</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/enrmous_input_test.py</t>
+  </si>
+  <si>
+    <t>1.Special type of read and write data faster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Use sys -&gt; sys.stdio.readline().rstrip('\n')
+2.takes single line of input untill 'enter'
+3.sys.stdout.write('string')--&gt; writes to stdout </t>
+  </si>
+  <si>
+    <t>Modulo</t>
+  </si>
+  <si>
+    <t>Find Remainder</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP0TO101/problems/FLOW002</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/find_remainder.py</t>
+  </si>
+  <si>
+    <t>1.Modulo operation</t>
+  </si>
+  <si>
+    <t>String Manipulation</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP0TO101/problems/FLOW004</t>
+  </si>
+  <si>
+    <t>First and Last Digit</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/first_and_last_digit.py</t>
+  </si>
+  <si>
+    <t>1.String operations on number</t>
+  </si>
+  <si>
+    <t>1.string indexing --&gt; str[1]
+2.string indexing from back --&gt; s[-1]</t>
+  </si>
+  <si>
+    <t>HashMap(dictionary)</t>
+  </si>
+  <si>
+    <t>Id and Ship</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/id_and_ship.py</t>
+  </si>
+  <si>
+    <t>1.Hashmap storage of data for quick retrival</t>
+  </si>
+  <si>
+    <t>1.to convert a string to lower case --&gt; str.lower()</t>
+  </si>
+  <si>
+    <t>String Traversal</t>
+  </si>
+  <si>
+    <t>Lucky Four</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP0TO101/problems/LUCKFOUR</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/lucky_four.py</t>
+  </si>
+  <si>
+    <t>1.String traversam operations</t>
+  </si>
+  <si>
+    <t>Reverse The Number</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP0TO101/problems/FLOW007</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/reverse_the_number.py</t>
+  </si>
+  <si>
+    <t>1.String reversal</t>
+  </si>
+  <si>
+    <t>1.To stripe an string with leading characters/string on
+ both ends use --&gt; str.strip('character/string')</t>
+  </si>
+  <si>
+    <t>General Math
+String Manipulation</t>
+  </si>
+  <si>
+    <t>Sum of Digits</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP0TO101/problems/FLOW006</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/sum_of_digits.py</t>
+  </si>
+  <si>
+    <t>1.String traversal and data type conversion</t>
+  </si>
+  <si>
+    <t>General Math</t>
+  </si>
+  <si>
+    <t>Valid Traingles</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP0TO101/problems/FLOW013</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/valid_triangles.py</t>
   </si>
 </sst>
 </file>
@@ -582,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ECFCBC7-B6D8-5D40-8315-E80063A1AE48}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -596,9 +815,10 @@
     <col min="4" max="4" width="91.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="100" style="1" customWidth="1"/>
     <col min="6" max="6" width="85.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -617,11 +837,14 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -640,16 +863,20 @@
       <c r="F3" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G3" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="11"/>
       <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -668,16 +895,20 @@
       <c r="F5" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G5" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
       <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" s="7" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
@@ -696,16 +927,20 @@
       <c r="F7" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G7" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="1:6" s="7" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>23</v>
       </c>
@@ -722,8 +957,11 @@
         <v>27</v>
       </c>
       <c r="F9" s="6"/>
-    </row>
-    <row r="11" spans="1:6" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="G9" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
@@ -742,6 +980,268 @@
       <c r="F11" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="G11" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="19" spans="1:7" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="23" spans="1:7" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="27" spans="1:7" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="31" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="33" spans="1:7" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="35" spans="1:7" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="37" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -755,6 +1255,33 @@
     <hyperlink ref="D7" r:id="rId8" xr:uid="{0051B861-8E15-634C-8154-3E09338CBE87}"/>
     <hyperlink ref="C11" r:id="rId9" xr:uid="{D8A53824-15FE-9A43-A208-192B9D317050}"/>
     <hyperlink ref="D11" r:id="rId10" xr:uid="{DA2C761E-E55C-1249-8F1F-EC4EDE482DB4}"/>
+    <hyperlink ref="C13" r:id="rId11" xr:uid="{F57604CC-594C-1E4A-9C46-88DE4D277062}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{7579876D-1ABC-954A-8AC7-BE406E63B9E2}"/>
+    <hyperlink ref="C15" r:id="rId13" xr:uid="{CDE2CB8A-4B8B-744F-A4BE-CD297345808A}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{0E15B887-E6E3-F74B-A397-274D5302DA40}"/>
+    <hyperlink ref="C17" r:id="rId15" xr:uid="{F4C416D8-667E-8948-91D1-4824B652B45E}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{611346E3-1408-F84F-B201-D6739FD3ECE8}"/>
+    <hyperlink ref="D19" r:id="rId17" xr:uid="{97761977-B752-6B4C-B8A5-99F37DA93C36}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{DA776F5B-52DC-4D46-B64A-6EE1E5C25441}"/>
+    <hyperlink ref="F19" r:id="rId19" xr:uid="{7AC709E9-706C-124D-896B-6356B94089C4}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{C4A700E8-BAF3-A646-BBBF-E3A1A123A93C}"/>
+    <hyperlink ref="D21" r:id="rId21" xr:uid="{2499CDBA-06D6-D249-86BD-CD8BC268E38D}"/>
+    <hyperlink ref="C23" r:id="rId22" xr:uid="{E8EF8DF7-DB7C-614F-AF70-22F6B6DB3E3E}"/>
+    <hyperlink ref="D23" r:id="rId23" xr:uid="{229FBE63-5559-3643-A368-33041EC9BFC4}"/>
+    <hyperlink ref="C25" r:id="rId24" xr:uid="{5705D5E4-5DC3-B444-A436-03DB61B8EF5B}"/>
+    <hyperlink ref="D25" r:id="rId25" xr:uid="{68B63124-E428-2646-9F01-AD0A72DCA760}"/>
+    <hyperlink ref="C27" r:id="rId26" xr:uid="{A0E8400E-7A5E-994A-9CC3-1A77B764166C}"/>
+    <hyperlink ref="D27" r:id="rId27" xr:uid="{EB7915BD-D3A8-374F-B9DC-0BA558908561}"/>
+    <hyperlink ref="C29" r:id="rId28" xr:uid="{0411F24E-476F-3449-A0BB-FBAD90A56029}"/>
+    <hyperlink ref="D29" r:id="rId29" xr:uid="{BA355ED5-B37C-B244-BB05-54D195EF5B31}"/>
+    <hyperlink ref="C31" r:id="rId30" xr:uid="{9EEF4E57-79D4-024A-8F4C-4469D2A9B9AA}"/>
+    <hyperlink ref="D31" r:id="rId31" xr:uid="{0171263B-D65E-FE40-AFF4-F9798FA72E22}"/>
+    <hyperlink ref="C33" r:id="rId32" xr:uid="{2621EA60-760B-494C-9E8F-3CBC04CAB0BC}"/>
+    <hyperlink ref="D33" r:id="rId33" xr:uid="{DB6B6C4E-CE3A-D244-8A4A-83EF33D0AD55}"/>
+    <hyperlink ref="C35" r:id="rId34" xr:uid="{DF4D4EA7-E97A-6148-A567-DBE220174583}"/>
+    <hyperlink ref="D35" r:id="rId35" xr:uid="{55FFE0B6-AB28-4140-A7FC-C688938353A5}"/>
+    <hyperlink ref="C37" r:id="rId36" xr:uid="{F7306139-499C-CF49-857A-CF99633B9989}"/>
+    <hyperlink ref="D37" r:id="rId37" xr:uid="{DDF56003-B1E1-B440-AB45-CDAF0B1DA09D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Review_notes.xlsx
+++ b/Review_notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/venkatapraveenkandimalla/praveen_files/cp_coding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBCB8DE-4C90-5C43-9AF0-A0C76C71A84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7DE49C-4918-414C-8137-617C2B21F42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{D8908FDD-206E-2A41-BB5A-F6564A5F7783}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="207">
   <si>
     <t>Question</t>
   </si>
@@ -381,6 +381,321 @@
   </si>
   <si>
     <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/valid_triangles.py</t>
+  </si>
+  <si>
+    <t>Richie Rich</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO201/problems/CHFRICH</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/richie_rich.py</t>
+  </si>
+  <si>
+    <t>The Two Dishes</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO201/problems/MAX_DIFF</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/the_two_dishes.py</t>
+  </si>
+  <si>
+    <t>1.Iterate over possible values for a taste  and check the other taste lies in range and update max difference</t>
+  </si>
+  <si>
+    <t>Conditional Statements</t>
+  </si>
+  <si>
+    <t>Vaccine Dates</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO201/problems/VDATES</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/vaccine_dates.py</t>
+  </si>
+  <si>
+    <t>Hoop Jump</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO201/problems/HOOPS</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/hoop_jump.py</t>
+  </si>
+  <si>
+    <t>Sorting tuples</t>
+  </si>
+  <si>
+    <t>Motivation</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO201/problems/IMDB</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/motavition.py</t>
+  </si>
+  <si>
+    <t>1.sort the tuple list and output which fits in disk</t>
+  </si>
+  <si>
+    <t>1.Sorting a list of tuples using key as tuple's second element
+2.tup_lst.sort(key=lambda x:x[1],reverse=True)</t>
+  </si>
+  <si>
+    <t>Two Dishes</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO201/problems/TWODISH</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/two_dishes.py</t>
+  </si>
+  <si>
+    <t>General Programming</t>
+  </si>
+  <si>
+    <t>Programming Languages</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO201/problems/PROGLANG</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/programming_languages.py</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO201/problems/PROBCAT</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/problem.py</t>
+  </si>
+  <si>
+    <t>1.compare lower and upper limit like
+if 5&lt;=n&lt;=100: //in python</t>
+  </si>
+  <si>
+    <t>Problem Category</t>
+  </si>
+  <si>
+    <t>Smallest Possible Whole Number</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO201/problems/SMOL</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/smallest_possible_whole_number.py</t>
+  </si>
+  <si>
+    <t>Chef and Spells</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO201/problems/CHFSPL</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/chef_and_spells.py</t>
+  </si>
+  <si>
+    <t>Turn It</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO201/problems/NFS</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/turn_it.py</t>
+  </si>
+  <si>
+    <t>Weight Balance</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO201/problems/WEIGHTBL</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/weight_balance.py</t>
+  </si>
+  <si>
+    <t>Chef and Stock Prices</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO201/problems/CSTOCK</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/chef_and_stock_prices.py</t>
+  </si>
+  <si>
+    <t>Arithematic Progression</t>
+  </si>
+  <si>
+    <t>Maximum Length Even Subarray</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO201/problems/MXEVNSUB</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/maximum_length_even_subarray.py</t>
+  </si>
+  <si>
+    <t>1.sum of sequence N is N(N+1)/2
+2.Even sum depends on N if Nis even or N+1 if N is odd.
+3.Even sum is possible only when the even number when divisible by 2 results even number</t>
+  </si>
+  <si>
+    <t>Distinct Pair Sums</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO201/problems/MANYSUMS</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/distinct_pair_sum.py</t>
+  </si>
+  <si>
+    <t>Spatial Logic</t>
+  </si>
+  <si>
+    <t>Tom and Jerry 1</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO201/problems/TANDJ1</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/tom_and_jerry_1.py</t>
+  </si>
+  <si>
+    <t>1.Taking Even steps comes back to same place</t>
+  </si>
+  <si>
+    <t>Arrays</t>
+  </si>
+  <si>
+    <t>Chef In Vaccination Queue</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO202/problems/VACCINQ</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/chef_in_vaccination_queue.py</t>
+  </si>
+  <si>
+    <t>Ched and IPC Certificates</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO202/problems/IPCCERT</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/chef_and_ipc_certificates.py</t>
+  </si>
+  <si>
+    <t>Make Them Equal</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO202/problems/MAKEEQUAL</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/make_them_equal.py</t>
+  </si>
+  <si>
+    <t>1.Read question carefully</t>
+  </si>
+  <si>
+    <t>1.To find minimum in a list A.
+min_a=min(A)</t>
+  </si>
+  <si>
+    <t>A Subtask Problem</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO202/problems/SUBTASK</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/a_subtask_problem.py</t>
+  </si>
+  <si>
+    <t>1.Read question carefully and input constraints</t>
+  </si>
+  <si>
+    <t>ICPC Ballons</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO202/problems/BALLOON</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/icpc_ballons.py</t>
+  </si>
+  <si>
+    <t>Gasoline Introduction</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO202/problems/BEGGASOL</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/gasoline_introduction.py</t>
+  </si>
+  <si>
+    <t>Caravans</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO202/problems/CARVANS</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/caravans.py</t>
+  </si>
+  <si>
+    <t>Hard Cash</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO202/problems/CASH</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/hard_cash.py</t>
+  </si>
+  <si>
+    <t>Avarage Flex</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO202/problems/AVGFLEX</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/average_flex.py</t>
+  </si>
+  <si>
+    <t>1.sorting the marks array and taking the mid point =&gt; 
+at this mark the number of students less than this position mark is equal to number of students more than 
+this position mark
+2.we decrease the index only when marks of center index in equal to marks of before index
+(since we r given a condition on less than or equal to given mark)</t>
+  </si>
+  <si>
+    <t>Noble Prize</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO202/problems/NOBEL</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/noble_prize.py</t>
+  </si>
+  <si>
+    <t>College Life 2</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO202/problems/COLGLF2</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/college_life_2.py</t>
+  </si>
+  <si>
+    <t>Arrays/Prefix Sum</t>
+  </si>
+  <si>
+    <t>Cops and Chef Devu</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO202/problems/COPS</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/cops_and_thief_devu.py</t>
+  </si>
+  <si>
+    <t>1.Follow the method of prefix sum techinique</t>
   </si>
 </sst>
 </file>
@@ -801,15 +1116,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ECFCBC7-B6D8-5D40-8315-E80063A1AE48}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="D85" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="74.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="91.5" style="1" customWidth="1"/>
@@ -1242,6 +1557,504 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
+    </row>
+    <row r="39" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="41" spans="1:7" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="43" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="45" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="47" spans="1:7" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="49" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="51" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="53" spans="1:7" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G53" s="3"/>
+    </row>
+    <row r="55" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+    </row>
+    <row r="57" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+    </row>
+    <row r="59" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+    </row>
+    <row r="61" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+    </row>
+    <row r="63" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+    </row>
+    <row r="65" spans="1:7" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+    </row>
+    <row r="67" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+    </row>
+    <row r="69" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+    </row>
+    <row r="71" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+    </row>
+    <row r="73" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+    </row>
+    <row r="75" spans="1:7" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G75" s="3"/>
+    </row>
+    <row r="77" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+    </row>
+    <row r="79" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+    </row>
+    <row r="81" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+    </row>
+    <row r="83" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+    </row>
+    <row r="85" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+    </row>
+    <row r="87" spans="1:7" s="7" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A87" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+    </row>
+    <row r="89" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+    </row>
+    <row r="91" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+    </row>
+    <row r="93" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1282,6 +2095,62 @@
     <hyperlink ref="D35" r:id="rId35" xr:uid="{55FFE0B6-AB28-4140-A7FC-C688938353A5}"/>
     <hyperlink ref="C37" r:id="rId36" xr:uid="{F7306139-499C-CF49-857A-CF99633B9989}"/>
     <hyperlink ref="D37" r:id="rId37" xr:uid="{DDF56003-B1E1-B440-AB45-CDAF0B1DA09D}"/>
+    <hyperlink ref="C39" r:id="rId38" xr:uid="{5C82545D-BF0C-9841-8061-75CC4C891CC0}"/>
+    <hyperlink ref="D39" r:id="rId39" xr:uid="{0DF3377E-19DD-0E4A-832B-5C7ED7717008}"/>
+    <hyperlink ref="C41" r:id="rId40" xr:uid="{574DE6EA-7D96-7244-B39C-9DD4E8A4A729}"/>
+    <hyperlink ref="D41" r:id="rId41" xr:uid="{9ED07906-6F03-C443-94C9-AED04885D5C3}"/>
+    <hyperlink ref="C43" r:id="rId42" xr:uid="{B12F24A2-DB85-E542-A746-2BF60B049C69}"/>
+    <hyperlink ref="D43" r:id="rId43" xr:uid="{FD8E3A32-7C78-9641-AF6A-47EB82432E27}"/>
+    <hyperlink ref="C45" r:id="rId44" xr:uid="{C7D19C58-E86F-C748-8D84-5109F392B27A}"/>
+    <hyperlink ref="D45" r:id="rId45" xr:uid="{2DBE51AC-9E59-2143-8747-5FA7C75D0236}"/>
+    <hyperlink ref="C47" r:id="rId46" xr:uid="{54BC2895-CD63-DF47-ACD2-84876FF62EBF}"/>
+    <hyperlink ref="D47" r:id="rId47" xr:uid="{0BBA5F71-5FC9-D646-BE8E-EFF9A28D41FE}"/>
+    <hyperlink ref="C49" r:id="rId48" xr:uid="{8C31E551-B0A9-8749-83DA-17B03A302D99}"/>
+    <hyperlink ref="D49" r:id="rId49" xr:uid="{0858ECF6-09B0-2C4A-A644-131F492A5FD4}"/>
+    <hyperlink ref="C51" r:id="rId50" xr:uid="{A55C6983-D0F3-B444-BB3E-4EC8AF016AAE}"/>
+    <hyperlink ref="D51" r:id="rId51" xr:uid="{D01E8DDC-1050-D147-926C-5AD44474AD6C}"/>
+    <hyperlink ref="C53" r:id="rId52" xr:uid="{077BBE9C-FF58-6449-B107-9BC9E97AF4C1}"/>
+    <hyperlink ref="D53" r:id="rId53" xr:uid="{446876C2-5F49-3542-8D57-BAB7546B2221}"/>
+    <hyperlink ref="C55" r:id="rId54" xr:uid="{85C9FB59-8D90-5046-99F6-8A8CE948ECE4}"/>
+    <hyperlink ref="D55" r:id="rId55" xr:uid="{9EC9A8A7-152B-9948-8D10-F7676C05318C}"/>
+    <hyperlink ref="C57" r:id="rId56" xr:uid="{2C1B694E-4009-834F-BDFB-154A3B0EF91E}"/>
+    <hyperlink ref="D57" r:id="rId57" xr:uid="{E3C0FA28-12F7-F24F-A62E-B5C32A4C7DE4}"/>
+    <hyperlink ref="C59" r:id="rId58" xr:uid="{82AA5330-309E-4044-BBB6-6967036997FF}"/>
+    <hyperlink ref="D59" r:id="rId59" xr:uid="{C3BC2130-97C9-2640-ACC0-D86355800D2D}"/>
+    <hyperlink ref="C61" r:id="rId60" xr:uid="{6A34F29C-F84F-6043-9180-AD17C11DB2EB}"/>
+    <hyperlink ref="D61" r:id="rId61" xr:uid="{0D604FBE-48F8-3E4B-9221-F70C453E7A1B}"/>
+    <hyperlink ref="C63" r:id="rId62" xr:uid="{C9FEC72D-AB30-0C46-8A28-C6DCDBD786B7}"/>
+    <hyperlink ref="D63" r:id="rId63" xr:uid="{FBE8DDF7-90AA-5F4A-8A9F-A0B41819E9C0}"/>
+    <hyperlink ref="C65" r:id="rId64" xr:uid="{59012777-CF04-5F4A-901D-71CEBAA4CEA7}"/>
+    <hyperlink ref="D65" r:id="rId65" xr:uid="{873DE12B-61DE-694C-B288-7F1BDC04B35E}"/>
+    <hyperlink ref="C67" r:id="rId66" xr:uid="{13720B1D-0362-664F-98A7-E80818EB2A9D}"/>
+    <hyperlink ref="D67" r:id="rId67" xr:uid="{7AA8451A-A6E4-D649-87DE-5B064C568BA9}"/>
+    <hyperlink ref="C69" r:id="rId68" xr:uid="{BC8185DF-8E7B-7E44-BC97-7E580A733A30}"/>
+    <hyperlink ref="D69" r:id="rId69" xr:uid="{86CA92C9-FECA-2041-AD52-C91D22E36BDB}"/>
+    <hyperlink ref="C71" r:id="rId70" xr:uid="{8698B6E5-4456-D64C-AEC2-A2B59AB0CE5D}"/>
+    <hyperlink ref="D71" r:id="rId71" xr:uid="{38E765E6-108E-494C-B89D-5E1D55622317}"/>
+    <hyperlink ref="C73" r:id="rId72" xr:uid="{D203328B-C69D-7F4F-8668-0ADEB452706F}"/>
+    <hyperlink ref="D73" r:id="rId73" xr:uid="{28A1AD6E-4A86-9641-9509-864535747859}"/>
+    <hyperlink ref="C75" r:id="rId74" xr:uid="{288BCA63-588D-B04B-B454-3E444064D860}"/>
+    <hyperlink ref="D75" r:id="rId75" xr:uid="{1B181F87-159E-6E41-AA28-EE66F6A0391D}"/>
+    <hyperlink ref="C77" r:id="rId76" xr:uid="{88F9C0A6-590D-8249-8456-3EB390132D0D}"/>
+    <hyperlink ref="D77" r:id="rId77" xr:uid="{037E02D6-657F-294D-B625-000AF6463AD3}"/>
+    <hyperlink ref="C79" r:id="rId78" xr:uid="{9BBC349F-E406-3344-903F-A283E0DF5BFE}"/>
+    <hyperlink ref="D79" r:id="rId79" xr:uid="{89B5E7FD-8DF4-0645-9BAC-21D85ED43774}"/>
+    <hyperlink ref="D81" r:id="rId80" xr:uid="{83D6CBA1-F296-A642-91C7-717B978026CA}"/>
+    <hyperlink ref="C81" r:id="rId81" xr:uid="{A1AD2A95-1C19-824A-B825-807B5D1136A3}"/>
+    <hyperlink ref="C83" r:id="rId82" xr:uid="{FEF1F89E-09FF-EC43-9C98-40C8EC6693D1}"/>
+    <hyperlink ref="D83" r:id="rId83" xr:uid="{F92B12BC-70F7-9F4D-AE5B-5D2C5FFBE5B2}"/>
+    <hyperlink ref="C85" r:id="rId84" xr:uid="{A9F6C596-37BF-EA42-9D3B-5455AFA2C66F}"/>
+    <hyperlink ref="D85" r:id="rId85" xr:uid="{9AF62E23-F40A-4A4D-AD24-00DDD5494C72}"/>
+    <hyperlink ref="C87" r:id="rId86" xr:uid="{42B5EC35-4D07-4647-BEFD-4900E0BCB4DC}"/>
+    <hyperlink ref="D87" r:id="rId87" xr:uid="{08DB8938-ACA1-C94B-A5F2-315C07EEE5B6}"/>
+    <hyperlink ref="C89" r:id="rId88" xr:uid="{DAAE6169-84CB-7949-A04A-13E385F87585}"/>
+    <hyperlink ref="D89" r:id="rId89" xr:uid="{5E4A263D-3E5A-9C40-ABBE-286E5A7A8F54}"/>
+    <hyperlink ref="C91" r:id="rId90" xr:uid="{8D6AE810-971C-E54F-BC1E-8E9940355A12}"/>
+    <hyperlink ref="D91" r:id="rId91" xr:uid="{AB17C0DF-4B8E-3541-AF5B-D7F49F83BC18}"/>
+    <hyperlink ref="C93" r:id="rId92" xr:uid="{FE6E0F0F-36E0-EF41-B39F-57932F49058C}"/>
+    <hyperlink ref="D93" r:id="rId93" xr:uid="{4ED2B240-D513-A947-B10A-B2EFF016778E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Review_notes.xlsx
+++ b/Review_notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/venkatapraveenkandimalla/praveen_files/cp_coding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7DE49C-4918-414C-8137-617C2B21F42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA16F08F-A6CA-2A47-B749-A843730648FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{D8908FDD-206E-2A41-BB5A-F6564A5F7783}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="307">
   <si>
     <t>Question</t>
   </si>
@@ -696,6 +696,336 @@
   </si>
   <si>
     <t>1.Follow the method of prefix sum techinique</t>
+  </si>
+  <si>
+    <t>Strings</t>
+  </si>
+  <si>
+    <t>Pawri Meme</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO203/problems/PAWRI</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/pawri_meme.py</t>
+  </si>
+  <si>
+    <t>1.To replace a substring in a string =&gt;
+s=s.replace('substring','replace_substring')</t>
+  </si>
+  <si>
+    <t>Chef and Wild Card Matching</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO203/problems/TWOSTR</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/chef_and_wild_card_matching.py</t>
+  </si>
+  <si>
+    <t>1.Write Conditional statements according to questions</t>
+  </si>
+  <si>
+    <t>Magical Doors</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO203/problems/MAGDOORS</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/magical_doors.py</t>
+  </si>
+  <si>
+    <t>Chef and Feedback</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO203/problems/ERROR</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/chef_and_feedback.py</t>
+  </si>
+  <si>
+    <t>1.To check is a string contains another string do =&gt;('in' operator)
+'substring' in s</t>
+  </si>
+  <si>
+    <t>Studying Alphabet</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO203/problems/ALPHABET</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/studying_alphabet.py</t>
+  </si>
+  <si>
+    <t>1.To convert a string into a list =&gt; list('given string') //this also includes space as a character
+2.Can also be done like s=[x for x in 'given string' ]
+3.To remove duplicates in a list just do =&gt; set(given_list)</t>
+  </si>
+  <si>
+    <t>Hiring Test</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO203/problems/HIRETEST</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/hiring_test.py</t>
+  </si>
+  <si>
+    <t>Lapindromes</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO203/problems/LAPIN</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/lapindromes.py</t>
+  </si>
+  <si>
+    <t>1.Increase count in frequency dictionary for first half
+2.Reverse string and decrease the count in frequency dictionary for first half
+3.if any character is not found in step 2 or any count is not zero after step 2 Its not a lapindrome</t>
+  </si>
+  <si>
+    <t>1.To reverse a string just do s[::-1]
+2.To know the ascii value of a character =&gt; ord(character)</t>
+  </si>
+  <si>
+    <t>Count Substrings</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO203/problems/CSUB</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/count_substrings.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Techinique here is each substring starts and ends with '1' is the index itself and with the indexs after it
+2.so for example if '1' are at index 2,4,7,9 then string starting at 2 forms 4 strings(ending at 2,4,7,9) and similarly string starting at 4 can form only 3 strings(4,7,9) 
+3.Implies count the number od 1's and add from 1 to count to answer. </t>
+  </si>
+  <si>
+    <t>Equinox Strings</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO203/problems/EQUINOX</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/equinox_strings.py</t>
+  </si>
+  <si>
+    <t>Strings/Stack</t>
+  </si>
+  <si>
+    <t>Snake Procession</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO203/problems/SNAKPROC</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/snake_procession.py</t>
+  </si>
+  <si>
+    <t>1.Stack operations on the string</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO203/problems/PASSWD</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/password.py</t>
+  </si>
+  <si>
+    <t>1.To generate Lower alphabets and Upper alphabets =&gt;
+2.lower_letters=[chr(x) for x in range(97,123)]
+ 3.upper_letters=[chr(x) for x in range(65,91)]
+chr() function is used to convert integer to character 
+ord() function is used to convert character to its ascii integer value</t>
+  </si>
+  <si>
+    <t>Playing With Matches</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO205/problems/MATCHES</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/playing_with_matches.py</t>
+  </si>
+  <si>
+    <t>Frequency Problem</t>
+  </si>
+  <si>
+    <t>Make All Equal Using Pairs</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO205/problems/PAIREQ</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/make_all_equal_using_pairs.py</t>
+  </si>
+  <si>
+    <t>1.calculate each element frequency and store it in dictionary
+2.iterate through dictionary and get the highest frequency
+3.subtract this from total number of elements and it is the required answer</t>
+  </si>
+  <si>
+    <t>Devu and Friendship Testing</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO205/problems/CFRTEST</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/devu_and_friendship_testing.py</t>
+  </si>
+  <si>
+    <t>1.convert the given list to a set and output its length</t>
+  </si>
+  <si>
+    <t>1.To get unique elements from list =&gt; just convert it to a 
+2.set_variable=set(list_variable)</t>
+  </si>
+  <si>
+    <t>Lazy Salesman</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO205/problems/HOLIDAYS</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/lazy_salesman.py</t>
+  </si>
+  <si>
+    <t>1.sort the array and subtract value from w untill it becomes &lt;=0
+2.return remaining days as answer</t>
+  </si>
+  <si>
+    <t>Chocolate Monger</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO205/problems/CM164364</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/chocolate_monger.py</t>
+  </si>
+  <si>
+    <t>1.Get distinct length.
+2.if this n-this_length is &gt;= k the putput n-this_length
+3.else output this_len-(remaining_k)</t>
+  </si>
+  <si>
+    <t>1.While splitting just use .split() instead of split(' ')</t>
+  </si>
+  <si>
+    <t>Gift Shop and Coupons</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO205/problems/GFTSHP</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/gift_shop_and_coupon.py</t>
+  </si>
+  <si>
+    <t>Simple Statistics</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO205/problems/SIMPSTAT</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/simple_statisitics.py</t>
+  </si>
+  <si>
+    <t>1.Precision in python =&gt;
+p=3.67
+print('{x:.6f}'.format(x=p))---6f is for 6 digits after decimal
+this outputs 
+3.670000</t>
+  </si>
+  <si>
+    <t>Pure Logic</t>
+  </si>
+  <si>
+    <t>Maximize the Minimum</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO205/problems/MAXTHEMIN</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/maximize_the_minimum.py</t>
+  </si>
+  <si>
+    <t>1.The trick here is to update the minimum value of array each time(i.e updating minimum to second minimum)
+2.ie sort the array and find the kth element as k elements (0 to k-1) are updated.
+3.we take min(k,n-1) as k can also be greater than the number of elements</t>
+  </si>
+  <si>
+    <t>Maximum Trio</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO205/problems/MXMTRIO</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/maximum_trio.py</t>
+  </si>
+  <si>
+    <t>1.For the given equation the maximum is possible when the A_i and A_j are maximum and minumum elements.
+And A_k is the second max element.</t>
+  </si>
+  <si>
+    <t>Watson Asks Does Permutation Exists</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO205/problems/PERMEXIS</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/watson_asks_does_permutation_exist.py</t>
+  </si>
+  <si>
+    <t>Points and Lines</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO205/problems/POLIN</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/points_and_lines.py</t>
+  </si>
+  <si>
+    <t>Maximise the Subsequence Sum</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO205/problems/SIGNFLIP</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/maximise_the_subsequence_sum.py</t>
+  </si>
+  <si>
+    <t>Even Splits</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO205/problems/EVENSPLIT</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/even_splits.py</t>
+  </si>
+  <si>
+    <t>1.Read Question carefully.
+2.the given operation is performend any number of times so
+3.obtaining a lexigrophically smallest binary string is getting all zeros to front.
+4.since one of the condition specifies the selection to be of even length so all strings of length &lt;=2 can be returned as it is.</t>
+  </si>
+  <si>
+    <t>Bit Manipulation</t>
+  </si>
+  <si>
+    <t>Cooking Machine</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO205/problems/COOKMACH</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/cooking_machine.py</t>
+  </si>
+  <si>
+    <t>1.Main aim is to make the given number a power of 2(i.e having only 1 set bit)
+2.Read question carefully</t>
   </si>
 </sst>
 </file>
@@ -1116,10 +1446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ECFCBC7-B6D8-5D40-8315-E80063A1AE48}">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D85" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView tabSelected="1" topLeftCell="D139" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2055,6 +2385,473 @@
       </c>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
+    </row>
+    <row r="95" spans="1:7" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E95" s="3"/>
+      <c r="F95" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G95" s="3"/>
+    </row>
+    <row r="97" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+    </row>
+    <row r="99" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+    </row>
+    <row r="101" spans="1:7" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="E101" s="3"/>
+      <c r="F101" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G101" s="3"/>
+    </row>
+    <row r="103" spans="1:7" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E103" s="3"/>
+      <c r="F103" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G103" s="3"/>
+    </row>
+    <row r="105" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+    </row>
+    <row r="107" spans="1:7" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="G107" s="3"/>
+    </row>
+    <row r="109" spans="1:7" s="7" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A109" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+    </row>
+    <row r="111" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+    </row>
+    <row r="113" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+    </row>
+    <row r="115" spans="1:7" s="4" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="G115" s="3"/>
+    </row>
+    <row r="117" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+    </row>
+    <row r="119" spans="1:7" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+    </row>
+    <row r="121" spans="1:7" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G121" s="3"/>
+    </row>
+    <row r="123" spans="1:7" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+    </row>
+    <row r="125" spans="1:7" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G125" s="3"/>
+    </row>
+    <row r="127" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+    </row>
+    <row r="129" spans="1:7" s="4" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E129" s="3"/>
+      <c r="F129" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="G129" s="3"/>
+    </row>
+    <row r="131" spans="1:7" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A131" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
+    </row>
+    <row r="133" spans="1:7" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A133" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+    </row>
+    <row r="135" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+    </row>
+    <row r="137" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+    </row>
+    <row r="139" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3"/>
+    </row>
+    <row r="141" spans="1:7" s="4" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A141" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3"/>
+    </row>
+    <row r="143" spans="1:7" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A143" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2151,6 +2948,56 @@
     <hyperlink ref="D91" r:id="rId91" xr:uid="{AB17C0DF-4B8E-3541-AF5B-D7F49F83BC18}"/>
     <hyperlink ref="C93" r:id="rId92" xr:uid="{FE6E0F0F-36E0-EF41-B39F-57932F49058C}"/>
     <hyperlink ref="D93" r:id="rId93" xr:uid="{4ED2B240-D513-A947-B10A-B2EFF016778E}"/>
+    <hyperlink ref="C95" r:id="rId94" xr:uid="{795FC671-EEFC-7449-BFE2-18CB0AA18C0B}"/>
+    <hyperlink ref="D95" r:id="rId95" xr:uid="{7BC7DD6D-A313-3342-AD1A-B37EFDC3DEAC}"/>
+    <hyperlink ref="C97" r:id="rId96" xr:uid="{2ED03EFD-08E3-C24E-BBBD-09FF0926C6BC}"/>
+    <hyperlink ref="D97" r:id="rId97" xr:uid="{C73A79E0-485F-FF49-84E5-4E34F0DB50E8}"/>
+    <hyperlink ref="C99" r:id="rId98" xr:uid="{3D9B3CB9-FCDC-3648-9D6A-616D78881B0B}"/>
+    <hyperlink ref="D99" r:id="rId99" xr:uid="{31AC95A6-D4D9-4E4D-A731-69C05BC04E4B}"/>
+    <hyperlink ref="C101" r:id="rId100" xr:uid="{B8B83EC2-D50E-6C4F-BAA9-54A97EF068BA}"/>
+    <hyperlink ref="D101" r:id="rId101" xr:uid="{76DAEE2B-B1C4-294A-AEBC-A4271A94A304}"/>
+    <hyperlink ref="C103" r:id="rId102" xr:uid="{0CF5E749-6FCF-7642-9365-2B0152A7B01D}"/>
+    <hyperlink ref="D103" r:id="rId103" xr:uid="{3560FE19-2B8A-1B48-9FB2-0C816D472F1A}"/>
+    <hyperlink ref="C105" r:id="rId104" xr:uid="{882963D6-2199-7345-B104-C3FA5B031460}"/>
+    <hyperlink ref="D105" r:id="rId105" xr:uid="{2D58328A-EFFF-A744-946D-45E9A299B56A}"/>
+    <hyperlink ref="C107" r:id="rId106" xr:uid="{F58A4E7F-9925-364F-97C2-D189E8D36E6B}"/>
+    <hyperlink ref="D107" r:id="rId107" xr:uid="{B2BD4C12-9FDC-944A-AAA4-0535ACAFFC25}"/>
+    <hyperlink ref="C109" r:id="rId108" xr:uid="{29B87B02-C96C-194B-97E2-69373C90405D}"/>
+    <hyperlink ref="D109" r:id="rId109" xr:uid="{FF01272F-85E4-F14F-8E62-E6DFB8AA0FAA}"/>
+    <hyperlink ref="C111" r:id="rId110" xr:uid="{6B0CF0FB-ECBE-0D4C-B60C-867CBAEA259C}"/>
+    <hyperlink ref="D111" r:id="rId111" xr:uid="{1569435C-9994-AB45-8401-C1285A5A146A}"/>
+    <hyperlink ref="C113" r:id="rId112" xr:uid="{2735DC73-6C34-E44A-88A7-B2B03417F992}"/>
+    <hyperlink ref="D113" r:id="rId113" xr:uid="{5D46FB15-2215-B64E-A580-3473FC1B6F61}"/>
+    <hyperlink ref="C115" r:id="rId114" xr:uid="{9C4A8A6B-91E0-6945-90E5-EB7A98AED0FE}"/>
+    <hyperlink ref="D115" r:id="rId115" xr:uid="{886FFBC1-8660-684C-967C-7E424BA61837}"/>
+    <hyperlink ref="C117" r:id="rId116" xr:uid="{A948DA86-084A-5F48-A6A1-D697562EACB9}"/>
+    <hyperlink ref="D117" r:id="rId117" xr:uid="{5CD5AE07-B6B3-1A49-891A-AC7F649D4887}"/>
+    <hyperlink ref="C119" r:id="rId118" xr:uid="{A7449D64-1EB0-5C4B-BFE6-D42853859FEF}"/>
+    <hyperlink ref="D119" r:id="rId119" xr:uid="{62BEA0AB-EA20-974A-ADD7-117C069CA14A}"/>
+    <hyperlink ref="C121" r:id="rId120" xr:uid="{3E3A86CD-2080-C740-B3FA-D81E523D4FC5}"/>
+    <hyperlink ref="D121" r:id="rId121" xr:uid="{4B37820A-B086-7145-A8A0-824B5BD8A413}"/>
+    <hyperlink ref="C123" r:id="rId122" xr:uid="{AC3A69EB-81DB-C747-853C-71A33EAACED0}"/>
+    <hyperlink ref="D123" r:id="rId123" xr:uid="{493D8D29-AC17-554A-8EF5-DAA2EC33C63A}"/>
+    <hyperlink ref="C125" r:id="rId124" xr:uid="{44213260-4E04-7C48-8DF8-3853327488A4}"/>
+    <hyperlink ref="D125" r:id="rId125" xr:uid="{DDCDB08C-98A5-6742-8171-EDDDA02B7384}"/>
+    <hyperlink ref="C127" r:id="rId126" xr:uid="{CCCD1DB9-2D01-4148-AD7D-0506062B1E98}"/>
+    <hyperlink ref="D127" r:id="rId127" xr:uid="{6015044B-EB02-014E-B4C6-6AADF0A7E348}"/>
+    <hyperlink ref="C129" r:id="rId128" xr:uid="{E402A0B9-C422-6B4D-91A8-5222B0D11826}"/>
+    <hyperlink ref="D129" r:id="rId129" xr:uid="{A71E6B51-184C-084F-961B-2F6F299FF438}"/>
+    <hyperlink ref="C131" r:id="rId130" xr:uid="{5F506EA1-D0AB-834B-9B3E-138B9E1B57E1}"/>
+    <hyperlink ref="D131" r:id="rId131" xr:uid="{FC410069-D76A-2547-BA4D-5FF7C54856AE}"/>
+    <hyperlink ref="C133" r:id="rId132" xr:uid="{CABA9842-14C2-D847-BED0-9D618326D7A1}"/>
+    <hyperlink ref="D133" r:id="rId133" xr:uid="{CFE12721-5831-334E-809C-50EB2952E2FE}"/>
+    <hyperlink ref="C135" r:id="rId134" xr:uid="{A0F9794A-E9E9-894F-9CA5-1BC960D12867}"/>
+    <hyperlink ref="D135" r:id="rId135" xr:uid="{B7B4EC6A-01F5-3241-AFF8-175F021B9B21}"/>
+    <hyperlink ref="C137" r:id="rId136" xr:uid="{4E41415D-DB1C-4742-9046-173A44F1012D}"/>
+    <hyperlink ref="D137" r:id="rId137" xr:uid="{96EF25E4-DA3A-8141-831C-0CC107FB930A}"/>
+    <hyperlink ref="C139" r:id="rId138" xr:uid="{F4E2A9B7-8CB1-104F-A8DA-77DA30D34396}"/>
+    <hyperlink ref="D139" r:id="rId139" xr:uid="{7132206B-B559-E64E-B85B-30B96AF93A85}"/>
+    <hyperlink ref="C141" r:id="rId140" xr:uid="{FD54BCF7-E73E-E442-967B-947181E2A346}"/>
+    <hyperlink ref="D141" r:id="rId141" xr:uid="{E94C0976-31EB-694F-9679-9AA518C1D16E}"/>
+    <hyperlink ref="C143" r:id="rId142" xr:uid="{00345B53-F5B1-F94B-AE47-5E4BEB54EB8F}"/>
+    <hyperlink ref="D143" r:id="rId143" xr:uid="{5CE59881-7E4B-1D47-BBB6-FA89BFA84C84}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Review_notes.xlsx
+++ b/Review_notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/venkatapraveenkandimalla/praveen_files/cp_coding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA16F08F-A6CA-2A47-B749-A843730648FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3880272E-55BC-C34F-8378-4B9218D13EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{D8908FDD-206E-2A41-BB5A-F6564A5F7783}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="380">
   <si>
     <t>Question</t>
   </si>
@@ -185,12 +185,6 @@
 2.tuple can be used to store key and its corrosponding value only if no retrival in O(1) timecomplexity is needed</t>
   </si>
   <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>AMAZON</t>
-  </si>
-  <si>
     <t>Input</t>
   </si>
   <si>
@@ -1026,6 +1020,269 @@
   <si>
     <t>1.Main aim is to make the given number a power of 2(i.e having only 1 set bit)
 2.Read question carefully</t>
+  </si>
+  <si>
+    <t>Pushpa</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO205/problems/PUSH7PA</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/pushpa.py</t>
+  </si>
+  <si>
+    <t>Sorting Techinique</t>
+  </si>
+  <si>
+    <t>Reversal Sorting</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO205/problems/REVSORT</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/reversal_sorting.py</t>
+  </si>
+  <si>
+    <t>1.Basic idea to sort an array is you should be able to swap atleast two elements
+2.when the current max is less than the next element =&gt; the array is in increasing order.
+3.In the given question for any given subarray there exists atleast two elements that we can swap (i.e max_till_now + next_element should be atmost given k).</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>Contains Duplicate</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/contains-duplicate/</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/leetcode/contain_duplicate.py</t>
+  </si>
+  <si>
+    <t>1.use set datastructure to keep track of elements.
+2.if the current element is already in set =&gt; its is a duplicate so break and print</t>
+  </si>
+  <si>
+    <t>Dictionary/Sorted</t>
+  </si>
+  <si>
+    <t>Valid Anagram</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-anagram/</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/leetcode/valid_anagram.py</t>
+  </si>
+  <si>
+    <t>1.sorting both strings and comparing them and return the ans
+2.you can also use dictionary to count freq and items.if both dict are not equal then return false</t>
+  </si>
+  <si>
+    <t>Out of Box Logic</t>
+  </si>
+  <si>
+    <t>Replace Element With Greatest Element On Right Side</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/replace-elements-with-greatest-element-on-right-side/</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/leetcode/replace_element_with_greatest_element_on_right_side.py</t>
+  </si>
+  <si>
+    <t>1.Thing outside of box.
+2.As question menctioned Greatest element on right side of array (i.e., current max from backside of the array)</t>
+  </si>
+  <si>
+    <t>1.To reverse an entire array use a[::-1]</t>
+  </si>
+  <si>
+    <t>String Traversing</t>
+  </si>
+  <si>
+    <t>Is Subsequence</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/is-subsequence/</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/leetcode/is_subsequence.py</t>
+  </si>
+  <si>
+    <t>1.update both indexes if character at both strings are equal.
+2.else update only index of t.
+3.for success s should be completely traversed(i.e i==s_len)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i==i (returns True).
+So you can do return i==s_len
+instead of 
+if i==s_len:
+return True
+</t>
+  </si>
+  <si>
+    <t>Length Of Last Word</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/length-of-last-word/</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/leetcode/length_of_last_word.py</t>
+  </si>
+  <si>
+    <t>1.split and strip the string os spaces
+2.find the length of last word (i.e -1 index from back)</t>
+  </si>
+  <si>
+    <t>Recursion/Divide and Conquer</t>
+  </si>
+  <si>
+    <t>Longest Common Prefix</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-common-prefix/</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/leetcode/longest_common_prefix.py</t>
+  </si>
+  <si>
+    <t>1.Divide the given array by mid everytime.
+2.perform Merge on those divided arrays at leaf node.
+3.Recursion/Merge sort Techiniques</t>
+  </si>
+  <si>
+    <t>Dictionary/Sorting</t>
+  </si>
+  <si>
+    <t>Group Anagrams</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/group-anagrams/</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/leetcode/group_anagrams.py</t>
+  </si>
+  <si>
+    <t>1.Sort given string and check if its in dict.if yes add it to values list if no create a list and add it.</t>
+  </si>
+  <si>
+    <t>1.i='praveen'
+sorted(i) = &gt; ['a','e','e','n','p','r']
+to convert this to string do 
+''.join(sorted(i))</t>
+  </si>
+  <si>
+    <t>List/Pascal Triangle</t>
+  </si>
+  <si>
+    <t>Pascal's Triangle</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/pascals-triangle/</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/leetcode/pascal_triangle.py</t>
+  </si>
+  <si>
+    <t>1.Working of pascal trinagle.</t>
+  </si>
+  <si>
+    <t>Two Pointer</t>
+  </si>
+  <si>
+    <t>Remove Element</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-element/</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/leetcode/remove_element.py</t>
+  </si>
+  <si>
+    <t>1.initialize two pointers one at first and other at last.
+2.Since we want all valid elements at start ,increase first pointer until num is not valid.
+3.similarly decrease last pointer until num is valid
+4.swap the values.
+5.do this until two pointers cross eachother</t>
+  </si>
+  <si>
+    <t>Top K Frequent Elements</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/top-k-frequent-elements/</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/leetcode/top_k_frequent_elements.py</t>
+  </si>
+  <si>
+    <t>1.calculate the count of each element in dictionary.
+2.sort the dictionary based on value.
+3.convert the sorted dictionary keys into list and return first k elements</t>
+  </si>
+  <si>
+    <t>Two Pointer/Prefix and Suffix product</t>
+  </si>
+  <si>
+    <t>Product Of Array Except Self</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/product-of-array-except-self/</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/leetcode/product_of_array_except_self.py</t>
+  </si>
+  <si>
+    <t>1.create two arrays with forward product and backward product.
+2.result array is product of f_array and b_array at a position i.
+3.this approach is O(n) time and O(n) space.
+4.for the same approach instead of creating two arrays update the forward array with backward product and update this bp each time.
+5.this gives O(n) time and O(1) space</t>
+  </si>
+  <si>
+    <t>Set/Sequence Building</t>
+  </si>
+  <si>
+    <t>Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-consecutive-sequence/</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/leetcode/longest_consecutive_sequence.py</t>
+  </si>
+  <si>
+    <t>1.convert the given list to set to have O(1) lookup of elements.
+2.for each element is this set look up if element-1 is in set
+3.if not in set take this element and check is next element in set and increment both element and sequence_length found till now
+4.update max_sequence_len as max(max_seq,curr_seq_len) to preserve max sequence formed till now</t>
+  </si>
+  <si>
+    <t>HTTP Chunk Encoding/Formatting</t>
+  </si>
+  <si>
+    <t>Encode and Decode Strings</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/encode-and-decode-strings/</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/leetcode/encode_and_decode_strings.py</t>
+  </si>
+  <si>
+    <t>1.preced each string with its length(converted to string of constant length ). =&gt; this is HTTP Chunk Encoding
+2.while decoding first take constant length and get those many characters update to next length and proceed =&gt; this is HTTP Chunk Decoding</t>
+  </si>
+  <si>
+    <t>1.to format a string you can use like
+f'{345.23:5d.3f}' =&gt; ' 345.230'
+5d specifies decimal should be of length 5 and 3f specifies 3 digits after the decimal.
+2.if you want to use multiple values you can use format() method like
+'first value is {a:3d.2f} and second value is {b:4d.5f} end'.format(a=435.33,b=35.332)
+3.you can also use index inplace of variables.
+'first value is {0:3d.2f} and second value is {1:4d.5f} end'.format(435.33,35.332)</t>
   </si>
 </sst>
 </file>
@@ -1093,44 +1350,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1446,1412 +1694,1688 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ECFCBC7-B6D8-5D40-8315-E80063A1AE48}">
-  <dimension ref="A1:G143"/>
+  <dimension ref="A1:G173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D139" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E144" sqref="E144"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G173" sqref="G173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="74.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="91.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="100" style="1" customWidth="1"/>
-    <col min="6" max="6" width="85.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="74.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="91.5" style="7" customWidth="1"/>
+    <col min="5" max="5" width="100" style="7" customWidth="1"/>
+    <col min="6" max="6" width="85.83203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7" s="7" customFormat="1" ht="136" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="C15" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="D15" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="E15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="17" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="C17" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="D17" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="E17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="19" spans="1:7" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="B19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="C19" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="G19" s="2"/>
+    </row>
+    <row r="21" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="B21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="C21" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="D21" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="E21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="23" spans="1:7" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="23" spans="1:7" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="C23" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="D23" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="E23" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="F23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="G23" s="2"/>
+    </row>
+    <row r="25" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="B25" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="C25" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="D25" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="E25" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="27" spans="1:7" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="B27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="3" t="s">
+      <c r="D27" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="10" t="s">
+      <c r="F27" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="G27" s="2"/>
+    </row>
+    <row r="29" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="B29" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="C29" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="E29" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="10" t="s">
+      <c r="F29" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="G29" s="2"/>
+    </row>
+    <row r="31" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="31" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+      <c r="C31" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="D31" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="E31" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="33" spans="1:7" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="C33" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="33" spans="1:7" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="3" t="s">
+      <c r="D33" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="E33" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="F33" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="G33" s="2"/>
+    </row>
+    <row r="35" spans="1:7" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="B35" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="35" spans="1:7" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
+      <c r="C35" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="D35" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="E35" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="37" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="37" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+      <c r="C37" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="D37" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="39" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="C39" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="39" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B39" s="3" t="s">
+      <c r="D39" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="41" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="C41" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="41" spans="1:7" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B41" s="3" t="s">
+      <c r="D41" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="E41" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="43" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="B43" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="43" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+      <c r="C43" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="D43" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="45" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="C45" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="45" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B45" s="3" t="s">
+      <c r="D45" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="47" spans="1:7" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="B47" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="47" spans="1:7" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
+      <c r="C47" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="D47" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="E47" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="F47" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="G47" s="2"/>
+    </row>
+    <row r="49" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="C49" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="G47" s="3"/>
-    </row>
-    <row r="49" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B49" s="3" t="s">
+      <c r="D49" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="51" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="B51" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-    </row>
-    <row r="51" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
+      <c r="C51" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="D51" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="53" spans="1:7" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D53" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="53" spans="1:7" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B53" s="3" t="s">
+      <c r="E53" s="2"/>
+      <c r="F53" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="55" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C53" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G53" s="3"/>
-    </row>
-    <row r="55" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B55" s="3" t="s">
+      <c r="D55" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="57" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="C57" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-    </row>
-    <row r="57" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B57" s="3" t="s">
+      <c r="D57" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="59" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="C59" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-    </row>
-    <row r="59" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B59" s="3" t="s">
+      <c r="D59" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="61" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="C61" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-    </row>
-    <row r="61" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B61" s="3" t="s">
+      <c r="D61" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="63" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="C63" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-    </row>
-    <row r="63" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B63" s="3" t="s">
+      <c r="D63" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="65" spans="1:7" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="B65" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-    </row>
-    <row r="65" spans="1:7" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
+      <c r="C65" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="D65" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="E65" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="67" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="C67" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-    </row>
-    <row r="67" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B67" s="3" t="s">
+      <c r="D67" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+    </row>
+    <row r="69" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="B69" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-    </row>
-    <row r="69" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
+      <c r="C69" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="D69" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="E69" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+    </row>
+    <row r="71" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-    </row>
-    <row r="71" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
+      <c r="C71" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="D71" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+    </row>
+    <row r="73" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="C73" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-    </row>
-    <row r="73" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B73" s="3" t="s">
+      <c r="D73" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+    </row>
+    <row r="75" spans="1:7" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D73" s="10" t="s">
+      <c r="C75" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-    </row>
-    <row r="75" spans="1:7" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B75" s="3" t="s">
+      <c r="D75" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="E75" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D75" s="10" t="s">
+      <c r="F75" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="G75" s="2"/>
+    </row>
+    <row r="77" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="C77" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="G75" s="3"/>
-    </row>
-    <row r="77" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B77" s="3" t="s">
+      <c r="D77" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="E77" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D77" s="10" t="s">
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+    </row>
+    <row r="79" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="C79" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-    </row>
-    <row r="79" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B79" s="3" t="s">
+      <c r="D79" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+    </row>
+    <row r="81" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D79" s="10" t="s">
+      <c r="C81" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-    </row>
-    <row r="81" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B81" s="3" t="s">
+      <c r="D81" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+    </row>
+    <row r="83" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D81" s="10" t="s">
+      <c r="C83" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-    </row>
-    <row r="83" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B83" s="3" t="s">
+      <c r="D83" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+    </row>
+    <row r="85" spans="1:7" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="C85" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-    </row>
-    <row r="85" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B85" s="6" t="s">
+      <c r="D85" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+    </row>
+    <row r="87" spans="1:7" s="3" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D85" s="9" t="s">
+      <c r="C87" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-    </row>
-    <row r="87" spans="1:7" s="7" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A87" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B87" s="6" t="s">
+      <c r="D87" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="E87" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D87" s="9" t="s">
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+    </row>
+    <row r="89" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E87" s="8" t="s">
+      <c r="C89" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-    </row>
-    <row r="89" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B89" s="3" t="s">
+      <c r="D89" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+    </row>
+    <row r="91" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D89" s="10" t="s">
+      <c r="C91" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-    </row>
-    <row r="91" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B91" s="3" t="s">
+      <c r="D91" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+    </row>
+    <row r="93" spans="1:7" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D91" s="10" t="s">
+      <c r="B93" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-    </row>
-    <row r="93" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="6" t="s">
+      <c r="C93" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="D93" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="E93" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D93" s="9" t="s">
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+    </row>
+    <row r="95" spans="1:7" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="B95" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-    </row>
-    <row r="95" spans="1:7" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
+      <c r="C95" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="D95" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="E95" s="2"/>
+      <c r="F95" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D95" s="10" t="s">
+      <c r="G95" s="2"/>
+    </row>
+    <row r="97" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E95" s="3"/>
-      <c r="F95" s="5" t="s">
+      <c r="C97" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="G95" s="3"/>
-    </row>
-    <row r="97" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B97" s="3" t="s">
+      <c r="D97" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C97" s="10" t="s">
+      <c r="E97" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D97" s="10" t="s">
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+    </row>
+    <row r="99" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="C99" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-    </row>
-    <row r="99" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B99" s="3" t="s">
+      <c r="D99" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="C99" s="10" t="s">
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+    </row>
+    <row r="101" spans="1:7" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D99" s="10" t="s">
+      <c r="C101" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-    </row>
-    <row r="101" spans="1:7" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B101" s="3" t="s">
+      <c r="D101" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="C101" s="10" t="s">
+      <c r="E101" s="2"/>
+      <c r="F101" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D101" s="10" t="s">
+      <c r="G101" s="2"/>
+    </row>
+    <row r="103" spans="1:7" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E101" s="3"/>
-      <c r="F101" s="5" t="s">
+      <c r="C103" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="G101" s="3"/>
-    </row>
-    <row r="103" spans="1:7" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B103" s="3" t="s">
+      <c r="D103" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="E103" s="2"/>
+      <c r="F103" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D103" s="10" t="s">
+      <c r="G103" s="2"/>
+    </row>
+    <row r="105" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E103" s="3"/>
-      <c r="F103" s="5" t="s">
+      <c r="C105" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="G103" s="3"/>
-    </row>
-    <row r="105" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B105" s="3" t="s">
+      <c r="D105" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="C105" s="10" t="s">
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+    </row>
+    <row r="107" spans="1:7" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D105" s="10" t="s">
+      <c r="C107" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-    </row>
-    <row r="107" spans="1:7" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B107" s="3" t="s">
+      <c r="D107" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C107" s="10" t="s">
+      <c r="E107" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D107" s="10" t="s">
+      <c r="F107" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E107" s="5" t="s">
+      <c r="G107" s="2"/>
+    </row>
+    <row r="109" spans="1:7" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F107" s="5" t="s">
+      <c r="C109" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="G107" s="3"/>
-    </row>
-    <row r="109" spans="1:7" s="7" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A109" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="B109" s="6" t="s">
+      <c r="D109" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="C109" s="9" t="s">
+      <c r="E109" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="D109" s="9" t="s">
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+    </row>
+    <row r="111" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E109" s="8" t="s">
+      <c r="C111" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
-    </row>
-    <row r="111" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B111" s="3" t="s">
+      <c r="D111" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="C111" s="10" t="s">
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+    </row>
+    <row r="113" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D111" s="10" t="s">
+      <c r="B113" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-    </row>
-    <row r="113" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="3" t="s">
+      <c r="C113" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="D113" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="C113" s="10" t="s">
+      <c r="E113" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D113" s="10" t="s">
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+    </row>
+    <row r="115" spans="1:7" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E113" s="3" t="s">
+      <c r="C115" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="F113" s="3"/>
-      <c r="G113" s="3"/>
-    </row>
-    <row r="115" spans="1:7" s="4" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B115" s="3" t="s">
+      <c r="D115" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="C115" s="10" t="s">
+      <c r="E115" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F115" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D115" s="10" t="s">
+      <c r="G115" s="2"/>
+    </row>
+    <row r="117" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E115" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F115" s="5" t="s">
+      <c r="C117" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="G115" s="3"/>
-    </row>
-    <row r="117" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B117" s="3" t="s">
+      <c r="D117" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="C117" s="10" t="s">
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+    </row>
+    <row r="119" spans="1:7" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D117" s="10" t="s">
+      <c r="B119" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
-    </row>
-    <row r="119" spans="1:7" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A119" s="3" t="s">
+      <c r="C119" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="D119" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C119" s="10" t="s">
+      <c r="E119" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D119" s="10" t="s">
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+    </row>
+    <row r="121" spans="1:7" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E119" s="5" t="s">
+      <c r="C121" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
-    </row>
-    <row r="121" spans="1:7" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A121" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B121" s="3" t="s">
+      <c r="D121" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="C121" s="10" t="s">
+      <c r="E121" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D121" s="10" t="s">
+      <c r="F121" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="E121" s="3" t="s">
+      <c r="G121" s="2"/>
+    </row>
+    <row r="123" spans="1:7" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="F121" s="5" t="s">
+      <c r="C123" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="G121" s="3"/>
-    </row>
-    <row r="123" spans="1:7" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B123" s="3" t="s">
+      <c r="D123" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="C123" s="10" t="s">
+      <c r="E123" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D123" s="10" t="s">
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+    </row>
+    <row r="125" spans="1:7" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E123" s="5" t="s">
+      <c r="C125" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="F123" s="3"/>
-      <c r="G123" s="3"/>
-    </row>
-    <row r="125" spans="1:7" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A125" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B125" s="3" t="s">
+      <c r="D125" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="C125" s="10" t="s">
+      <c r="E125" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D125" s="10" t="s">
+      <c r="F125" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E125" s="5" t="s">
+      <c r="G125" s="2"/>
+    </row>
+    <row r="127" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="F125" s="3" t="s">
+      <c r="C127" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="G125" s="3"/>
-    </row>
-    <row r="127" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B127" s="3" t="s">
+      <c r="D127" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="C127" s="10" t="s">
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+    </row>
+    <row r="129" spans="1:7" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D127" s="10" t="s">
+      <c r="C129" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="E127" s="3"/>
-      <c r="F127" s="3"/>
-      <c r="G127" s="3"/>
-    </row>
-    <row r="129" spans="1:7" s="4" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A129" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B129" s="3" t="s">
+      <c r="D129" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="C129" s="10" t="s">
+      <c r="E129" s="2"/>
+      <c r="F129" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D129" s="10" t="s">
+      <c r="G129" s="2"/>
+    </row>
+    <row r="131" spans="1:7" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A131" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="E129" s="3"/>
-      <c r="F129" s="5" t="s">
+      <c r="B131" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="G129" s="3"/>
-    </row>
-    <row r="131" spans="1:7" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A131" s="6" t="s">
+      <c r="C131" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="D131" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="C131" s="9" t="s">
+      <c r="E131" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="D131" s="9" t="s">
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+    </row>
+    <row r="133" spans="1:7" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E131" s="8" t="s">
+      <c r="C133" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="F131" s="6"/>
-      <c r="G131" s="6"/>
-    </row>
-    <row r="133" spans="1:7" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A133" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="B133" s="3" t="s">
+      <c r="D133" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="C133" s="10" t="s">
+      <c r="E133" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D133" s="10" t="s">
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+    </row>
+    <row r="135" spans="1:7" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E133" s="5" t="s">
+      <c r="C135" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="F133" s="3"/>
-      <c r="G133" s="3"/>
-    </row>
-    <row r="135" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B135" s="3" t="s">
+      <c r="D135" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="C135" s="10" t="s">
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+    </row>
+    <row r="137" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D135" s="10" t="s">
+      <c r="C137" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
-      <c r="G135" s="3"/>
-    </row>
-    <row r="137" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B137" s="3" t="s">
+      <c r="D137" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="C137" s="10" t="s">
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+    </row>
+    <row r="139" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D137" s="10" t="s">
+      <c r="C139" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="E137" s="3"/>
-      <c r="F137" s="3"/>
-      <c r="G137" s="3"/>
-    </row>
-    <row r="139" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B139" s="3" t="s">
+      <c r="D139" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="C139" s="10" t="s">
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+    </row>
+    <row r="141" spans="1:7" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="D139" s="10" t="s">
+      <c r="C141" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="E139" s="3"/>
-      <c r="F139" s="3"/>
-      <c r="G139" s="3"/>
-    </row>
-    <row r="141" spans="1:7" s="4" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A141" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="B141" s="3" t="s">
+      <c r="D141" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="C141" s="10" t="s">
+      <c r="E141" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D141" s="10" t="s">
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+    </row>
+    <row r="143" spans="1:7" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A143" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="E141" s="5" t="s">
+      <c r="B143" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="F141" s="3"/>
-      <c r="G141" s="3"/>
-    </row>
-    <row r="143" spans="1:7" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A143" s="6" t="s">
+      <c r="C143" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="D143" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="C143" s="9" t="s">
+      <c r="E143" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="D143" s="9" t="s">
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
+    </row>
+    <row r="145" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="E143" s="8" t="s">
+      <c r="C145" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
+      <c r="D145" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+    </row>
+    <row r="147" spans="1:7" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A147" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="D147" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
+    </row>
+    <row r="149" spans="1:7" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
+    </row>
+    <row r="151" spans="1:7" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D151" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+    </row>
+    <row r="153" spans="1:7" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="D153" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G153" s="2"/>
+    </row>
+    <row r="155" spans="1:7" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="D155" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="G155" s="2"/>
+    </row>
+    <row r="157" spans="1:7" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="D157" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+    </row>
+    <row r="159" spans="1:7" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A159" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C159" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="D159" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="F159" s="4"/>
+      <c r="G159" s="4"/>
+    </row>
+    <row r="161" spans="1:7" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G161" s="2"/>
+    </row>
+    <row r="163" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="D163" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+    </row>
+    <row r="165" spans="1:7" s="3" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A165" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C165" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="D165" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="F165" s="4"/>
+      <c r="G165" s="4"/>
+    </row>
+    <row r="167" spans="1:7" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A167" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C167" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="D167" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="F167" s="4"/>
+      <c r="G167" s="4"/>
+    </row>
+    <row r="169" spans="1:7" s="3" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A169" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C169" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="D169" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="F169" s="4"/>
+      <c r="G169" s="4"/>
+    </row>
+    <row r="171" spans="1:7" s="3" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A171" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C171" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="D171" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="F171" s="4"/>
+      <c r="G171" s="4"/>
+    </row>
+    <row r="173" spans="1:7" s="3" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A173" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C173" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="D173" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="G173" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2998,6 +3522,36 @@
     <hyperlink ref="D141" r:id="rId141" xr:uid="{E94C0976-31EB-694F-9679-9AA518C1D16E}"/>
     <hyperlink ref="C143" r:id="rId142" xr:uid="{00345B53-F5B1-F94B-AE47-5E4BEB54EB8F}"/>
     <hyperlink ref="D143" r:id="rId143" xr:uid="{5CE59881-7E4B-1D47-BBB6-FA89BFA84C84}"/>
+    <hyperlink ref="C145" r:id="rId144" xr:uid="{79304FE1-A421-094F-8926-92CDEE9CE9B7}"/>
+    <hyperlink ref="D145" r:id="rId145" xr:uid="{BD39B83A-1788-3C4E-A300-4250D0DE4CF1}"/>
+    <hyperlink ref="C147" r:id="rId146" xr:uid="{CCF8E782-9B21-C544-9E12-7681731A8BD1}"/>
+    <hyperlink ref="D147" r:id="rId147" xr:uid="{2A8063B5-F30B-8647-B466-D1B1C048B160}"/>
+    <hyperlink ref="C149" r:id="rId148" xr:uid="{0B76E926-B9AD-BF4B-A880-A445B5422606}"/>
+    <hyperlink ref="D149" r:id="rId149" xr:uid="{DE0042DE-AB2C-784A-B247-68F334277845}"/>
+    <hyperlink ref="C151" r:id="rId150" xr:uid="{9CE3E5FE-2D19-C84F-BF87-08A0A6E4AF94}"/>
+    <hyperlink ref="D151" r:id="rId151" xr:uid="{F6983966-1D2E-6D4D-B58D-ABFA41E20106}"/>
+    <hyperlink ref="C153" r:id="rId152" xr:uid="{862EC40A-AD3B-064C-8D58-E6003E63B2C8}"/>
+    <hyperlink ref="D153" r:id="rId153" xr:uid="{CB63CA4B-24CF-1A4E-8A4C-0AA014A6BB4C}"/>
+    <hyperlink ref="C155" r:id="rId154" xr:uid="{09769F7A-5A31-D541-873C-4726388EB4B8}"/>
+    <hyperlink ref="D155" r:id="rId155" xr:uid="{9FB2E0C4-7F45-9A42-90E1-F3D2BD370AB3}"/>
+    <hyperlink ref="C157" r:id="rId156" xr:uid="{83084EA4-4794-834E-A47C-8A88876587FE}"/>
+    <hyperlink ref="D157" r:id="rId157" xr:uid="{A3AB8A07-5B2C-BE45-83BC-DA31CC509DAF}"/>
+    <hyperlink ref="C159" r:id="rId158" xr:uid="{E5515E3F-F900-504C-91B8-7BBAF441E958}"/>
+    <hyperlink ref="D159" r:id="rId159" xr:uid="{C37DF701-0B75-7A47-A202-429C2D583E1C}"/>
+    <hyperlink ref="C161" r:id="rId160" xr:uid="{429B0B98-5248-1546-9750-C8CD20ED0F9A}"/>
+    <hyperlink ref="D161" r:id="rId161" xr:uid="{92C9DEF7-DCF5-EC44-BA8F-650218FFAC82}"/>
+    <hyperlink ref="C163" r:id="rId162" xr:uid="{A2AF894D-2FB5-4143-8F3E-0EFA793A85F2}"/>
+    <hyperlink ref="D163" r:id="rId163" xr:uid="{D6740446-9A89-D045-96E1-C5F4E07ECC2B}"/>
+    <hyperlink ref="C165" r:id="rId164" xr:uid="{76FA65F5-29B0-D148-844E-01A2EA4EACEE}"/>
+    <hyperlink ref="D165" r:id="rId165" xr:uid="{EA8AD786-BBF9-B848-8AF8-6A3668C70677}"/>
+    <hyperlink ref="C167" r:id="rId166" xr:uid="{545B9C6A-F26F-C448-8A6F-0DA8CC252D36}"/>
+    <hyperlink ref="D167" r:id="rId167" xr:uid="{BB7F79B5-3066-AC41-9F12-83E77C2876C8}"/>
+    <hyperlink ref="C169" r:id="rId168" xr:uid="{B41E657A-4A4D-0945-AC35-ADB428FA243D}"/>
+    <hyperlink ref="D169" r:id="rId169" xr:uid="{1CF6774A-1354-E14B-86B7-DC3876CD3DF9}"/>
+    <hyperlink ref="C173" r:id="rId170" xr:uid="{0B2B7E91-CF98-E04C-A6C2-34DE99C93B1D}"/>
+    <hyperlink ref="C171" r:id="rId171" xr:uid="{BBC99A7F-4913-914C-9634-E1BD6831A482}"/>
+    <hyperlink ref="D171" r:id="rId172" xr:uid="{684EB56D-651D-764C-BE0F-28503CE2E4FD}"/>
+    <hyperlink ref="D173" r:id="rId173" xr:uid="{8D44924F-DD85-A14C-8C0C-3EF01E13F7C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Review_notes.xlsx
+++ b/Review_notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/venkatapraveenkandimalla/praveen_files/cp_coding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3880272E-55BC-C34F-8378-4B9218D13EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F29CAA1-AF4D-5845-B3A0-F1F970B5348D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{D8908FDD-206E-2A41-BB5A-F6564A5F7783}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="425">
   <si>
     <t>Question</t>
   </si>
@@ -1283,6 +1283,172 @@
 'first value is {a:3d.2f} and second value is {b:4d.5f} end'.format(a=435.33,b=35.332)
 3.you can also use index inplace of variables.
 'first value is {0:3d.2f} and second value is {1:4d.5f} end'.format(435.33,35.332)</t>
+  </si>
+  <si>
+    <t>Strings/Two Pointer</t>
+  </si>
+  <si>
+    <t>Valid Palindrome</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-palindrome/</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/leetcode/valid_palindrome.py</t>
+  </si>
+  <si>
+    <t>1.remove all non-alphanumeric chars.
+2.reverse original string and compare it to original.
+3.if both equal its palindrome else not.</t>
+  </si>
+  <si>
+    <t>1.isdigit() says whether given char is in range [0-9]
+2.isalpha says whether given char is in [a-zA-Z]
+3.lower() converts given character to lowercase
+4.to reverse a string use s[::-1]</t>
+  </si>
+  <si>
+    <t>Strings/Two Pointer/Recursion</t>
+  </si>
+  <si>
+    <t>Valid Palindrome II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-palindrome-ii/</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/leetcode/valid_palindrome_II.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.This can be done in two approached iterative and recursive.
+2.for any approach the logic is when the characters do not match 
+2.1.update the string deleting front char.
+Perform function on this string.
+2.2 update the original string deleting last char.
+perform function on this string.
+return 'or' value of above two outputs. </t>
+  </si>
+  <si>
+    <t>Two Pointer/Sliding Window/Sorting</t>
+  </si>
+  <si>
+    <t>Minimum Difference Between Highest and Lowest of K Scores</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-difference-between-highest-and-lowest-of-k-scores/</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/leetcode/minimum_difference_between_hightst_and_lowest_of_k_scores.py</t>
+  </si>
+  <si>
+    <t>1.sort the given array.
+2.initialize two variables at k distance a part.
+3.update the minimum of difference</t>
+  </si>
+  <si>
+    <t>String/Two Pointer</t>
+  </si>
+  <si>
+    <t>Reverse String</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-string/</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/leetcode/reverse_string.py</t>
+  </si>
+  <si>
+    <t>1.initialise two pointers at end and at start
+2.swap the characters in place</t>
+  </si>
+  <si>
+    <t>Two Pointer/Two Sum Technique</t>
+  </si>
+  <si>
+    <t>Three Sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/3sum/</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/leetcode/three_sum.py</t>
+  </si>
+  <si>
+    <t>1.This question is based on Two Sum Technique.
+2.In order to get only unique triplets makesure to skip already seen target.
+3.this can be simply done by sorting array and skipping if val equal to prev_val
+4.after selecting a target now its two sum with target.
+5.we solve this using two pointers instead of dictionary here we need distinct triplets of values.
+6.sorting can also help us to skip if we have seen a member of two sum already.</t>
+  </si>
+  <si>
+    <t>Container With Most Water</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/container-with-most-water/</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/leetcode/container_with_most_water.py</t>
+  </si>
+  <si>
+    <t>1.most water is contained when the end heights as large as possible.
+2.Make pointers at both ends and calculate current area.
+3.move the pointers inward towards the pointer with high height.
+4.update the max_area with current area.</t>
+  </si>
+  <si>
+    <t>SlidingWindow/Basic Intution</t>
+  </si>
+  <si>
+    <t>Buy and Sell Stocks</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock/</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/leetcode/best_time_to_buy_and_sell_stocks.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Update the buy price if you encounter a lower price.
+2.if you encounter a higher price than buy price update max profit. </t>
+  </si>
+  <si>
+    <t>Sliding Window/Strings</t>
+  </si>
+  <si>
+    <t>Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-substring-without-repeating-characters/</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/leetcode/longest_substring_without_repeating_characters.py</t>
+  </si>
+  <si>
+    <t>1.initialise two variables at start of string.
+2.increase one pointer and add character to set until you find that element in set.
+3.update the length with max_length
+4.if you find element in set,increment other pointer and remove curr_element from set until the element is not in set.</t>
+  </si>
+  <si>
+    <t>Longest Repeating Character Replacement</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-repeating-character-replacement/</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/leetcode/longest_repeating_character_replacement.py</t>
+  </si>
+  <si>
+    <t>1.initialize two pointers(sliding window)
+2.keep track of max character in current string by these two pointers.
+3.if current string no valid(i.e replacement characters &gt; given) increment front pointer.
+4.else move forward pointer.
+5.keep track of curr string length and update if any max</t>
+  </si>
+  <si>
+    <t>1.To form a dictionary with all characters with count 0 use =&gt;
+count_dict = {chr(x): 0 for x in range(65, 91)}</t>
   </si>
 </sst>
 </file>
@@ -1694,10 +1860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ECFCBC7-B6D8-5D40-8315-E80063A1AE48}">
-  <dimension ref="A1:G173"/>
+  <dimension ref="A1:G191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G173" sqref="G173"/>
+    <sheetView tabSelected="1" topLeftCell="E170" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F192" sqref="F192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3376,6 +3542,181 @@
         <v>379</v>
       </c>
       <c r="G173" s="4"/>
+    </row>
+    <row r="175" spans="1:7" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="D175" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="G175" s="2"/>
+    </row>
+    <row r="177" spans="1:7" s="1" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C177" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="D177" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="F177" s="2"/>
+      <c r="G177" s="2"/>
+    </row>
+    <row r="179" spans="1:7" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="D179" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="F179" s="2"/>
+      <c r="G179" s="2"/>
+    </row>
+    <row r="181" spans="1:7" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C181" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="D181" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="F181" s="2"/>
+      <c r="G181" s="2"/>
+    </row>
+    <row r="183" spans="1:7" s="3" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A183" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C183" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="D183" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F183" s="4"/>
+      <c r="G183" s="4"/>
+    </row>
+    <row r="185" spans="1:7" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A185" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C185" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="D185" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="F185" s="4"/>
+      <c r="G185" s="4"/>
+    </row>
+    <row r="187" spans="1:7" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A187" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C187" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="D187" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="F187" s="2"/>
+      <c r="G187" s="2"/>
+    </row>
+    <row r="189" spans="1:7" s="3" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A189" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C189" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="D189" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="F189" s="4"/>
+      <c r="G189" s="4"/>
+    </row>
+    <row r="191" spans="1:7" s="3" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A191" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C191" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="D191" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="F191" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="G191" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3552,6 +3893,24 @@
     <hyperlink ref="C171" r:id="rId171" xr:uid="{BBC99A7F-4913-914C-9634-E1BD6831A482}"/>
     <hyperlink ref="D171" r:id="rId172" xr:uid="{684EB56D-651D-764C-BE0F-28503CE2E4FD}"/>
     <hyperlink ref="D173" r:id="rId173" xr:uid="{8D44924F-DD85-A14C-8C0C-3EF01E13F7C9}"/>
+    <hyperlink ref="C175" r:id="rId174" xr:uid="{B60F71D1-78F9-E242-8AA8-919EA533E41E}"/>
+    <hyperlink ref="D175" r:id="rId175" xr:uid="{46B89FC9-6CB2-DB49-A8E0-A9E9570C0D8C}"/>
+    <hyperlink ref="C177" r:id="rId176" xr:uid="{0A28CBE5-0C54-C349-90B3-FC1FDE76624A}"/>
+    <hyperlink ref="D177" r:id="rId177" xr:uid="{029D2F81-3889-344C-879D-94B71089880E}"/>
+    <hyperlink ref="C179" r:id="rId178" xr:uid="{5C34085A-11E3-C347-A2B4-DD2BBCFC387E}"/>
+    <hyperlink ref="D179" r:id="rId179" xr:uid="{9BA79180-2D38-214E-87AA-8C4D1EB5B619}"/>
+    <hyperlink ref="C181" r:id="rId180" xr:uid="{8CCE63FE-4E8A-6449-A370-FAE91EFA5F07}"/>
+    <hyperlink ref="D181" r:id="rId181" xr:uid="{342AD523-D415-5643-9D90-D1CB399F8A89}"/>
+    <hyperlink ref="C183" r:id="rId182" xr:uid="{3D6F1D50-54C1-4F4A-AEC9-EC5FFA6FBFDC}"/>
+    <hyperlink ref="D183" r:id="rId183" xr:uid="{4F9C8C9D-1714-374A-AD8F-3D695947018C}"/>
+    <hyperlink ref="C185" r:id="rId184" xr:uid="{9EA1E4E1-1B27-CC4B-ACED-2C6EC0002C72}"/>
+    <hyperlink ref="D185" r:id="rId185" xr:uid="{73E7B611-3529-4047-BAD3-E0F2A8DF8F77}"/>
+    <hyperlink ref="C187" r:id="rId186" xr:uid="{50D8E245-A065-9243-BCD3-F4BAAD7AA5A7}"/>
+    <hyperlink ref="D187" r:id="rId187" xr:uid="{450D2D60-1E5B-7846-A1E0-91720C96C67C}"/>
+    <hyperlink ref="C189" r:id="rId188" xr:uid="{3A433F6B-CA6A-4A4C-8C2B-3491D7576D84}"/>
+    <hyperlink ref="D189" r:id="rId189" xr:uid="{ADA48EB9-18EF-0143-909A-E9952E30B776}"/>
+    <hyperlink ref="C191" r:id="rId190" xr:uid="{8017D0CE-5882-AF4C-A962-20D278017EA8}"/>
+    <hyperlink ref="D191" r:id="rId191" xr:uid="{785878A4-E931-984B-B774-87297CF2D711}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Review_notes.xlsx
+++ b/Review_notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/venkatapraveenkandimalla/praveen_files/cp_coding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F29CAA1-AF4D-5845-B3A0-F1F970B5348D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1EEF20-D361-384F-92B1-9BFD3E6B18C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{D8908FDD-206E-2A41-BB5A-F6564A5F7783}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="481">
   <si>
     <t>Question</t>
   </si>
@@ -1449,6 +1449,206 @@
   <si>
     <t>1.To form a dictionary with all characters with count 0 use =&gt;
 count_dict = {chr(x): 0 for x in range(65, 91)}</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>Daanish and Problems</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO204/problems/DIV03</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/daanish_and_problems.py</t>
+  </si>
+  <si>
+    <t>Maximize the Subsequence Sum</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO204/problems/SIGNFLIP</t>
+  </si>
+  <si>
+    <t>1.Sort positives and abs() of negative values seperately.
+2.add first k elements to the positive elements list and sort it again.
+3.find the total sum and print it.</t>
+  </si>
+  <si>
+    <t>Stack/List</t>
+  </si>
+  <si>
+    <t>Valid Paranthesis</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-parentheses/</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/leetcode/valid_paranthesis.py</t>
+  </si>
+  <si>
+    <t>1.push if its open brackes.
+2.if its closed bracket check the last element in list(i.e top element of stack)
+3.if corrosponding bracket pop else its unbalanced return false
+4.finally if stack is not empty return false else true</t>
+  </si>
+  <si>
+    <t>1.list_name.pop(index) rempves element at that index</t>
+  </si>
+  <si>
+    <t>Number Of 1 Bits</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-1-bits/</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/leetcode/number_of_1_bits.py</t>
+  </si>
+  <si>
+    <t>1.if n&amp;1==0 =&gt; lsb is 1.
+n=n&gt;&gt;1 =&gt; shift n to right 1 time.
+2.In other approach when you do n&amp;n-1 =&gt; the lsb becomes 0</t>
+  </si>
+  <si>
+    <t>Bit Manipulation/Dynamic Programming</t>
+  </si>
+  <si>
+    <t>Counting Bits</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/counting-bits/</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/leetcode/counting_bits.py</t>
+  </si>
+  <si>
+    <t>1.based on the previous question the 'There is only 1 bit difference between n and n&amp;n-1'
+2.implies ans[n]=ans[n&amp;n-1]+1
+3.This comes under dynamic programming as we are storing the prev result and by using it we fill next result with out implicitely calculating it</t>
+  </si>
+  <si>
+    <t>Bit Manipulation/XOR</t>
+  </si>
+  <si>
+    <t>Missing Number</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/missing-number/</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/leetcode/missing_number.py</t>
+  </si>
+  <si>
+    <t>1.Xor of same number even number of times leads to zero and odd number of times leads to same number.
+2.four properties of XOR:
+Commutativity: 𝐴⊕𝐵=𝐵⊕𝐴
+Associativity: (𝐴⊕𝐵)⊕𝐶=𝐴⊕(𝐵⊕𝐶)
+Identity exists:𝐴⊕0=𝐴 for any 𝐴
+Each element is its own inverse: for each 𝐴, 𝐴⊕𝐴=0.</t>
+  </si>
+  <si>
+    <t>Sorting/General Programming</t>
+  </si>
+  <si>
+    <t>Chopsticks</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO204/problems/TACHSTCK</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/chopsticks.py</t>
+  </si>
+  <si>
+    <t>1.Sort the array.
+2.check diff not greater that given d.
+makesure you don’t skip two elements.
+If two elements satisfy condition change them so that they wont get included next time</t>
+  </si>
+  <si>
+    <t>Sorting/DataStructures</t>
+  </si>
+  <si>
+    <t>Sticks</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO204/problems/STICKS</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/sticks.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.make a set of elements.
+2.make a dictionary with elements of set and their counts.
+3.sort dictionary based on the element.
+4.choose element whose count is more than 2 or 2 of same if more than 4 </t>
+  </si>
+  <si>
+    <t>1.Converting a list of elements to dictionary with specific value
+dict(zip(a,b))
+a,b can be an iterable object and should be of same length
+2.Zip() finction clubs each value of given iterable objects together and forms tuples.</t>
+  </si>
+  <si>
+    <t>Sorting/Trick Question</t>
+  </si>
+  <si>
+    <t>Maximum Weight Difference</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO204/problems/MAXDIFF</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/maximum_weight_difference.py</t>
+  </si>
+  <si>
+    <t>1.sort the array.
+2.take sum of first k elements and last k elements.
+3.find min of first k elements and remaining elements same goes for last k elements.
+4.min of above two values is son's carry weight.
+5.find max difference of above value and remaining weights.</t>
+  </si>
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>Racing Horses</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO204/problems/HORSES</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/racing_horses.py</t>
+  </si>
+  <si>
+    <t>1.sort the array.
+2.initialize min_diff to max possible value
+2.find min of min_diff and diff between adj elements</t>
+  </si>
+  <si>
+    <t>The Smallest Pair</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO204/problems/SMPAIR</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/the_samllest_pair.py</t>
+  </si>
+  <si>
+    <t>1.Iterate from back logic.
+Initialize mini as last element.
+Start from last second and update ans as min(ans,curr_element+mini)
+update mini as min(mini,curr_element)</t>
+  </si>
+  <si>
+    <t>Chef And Linear Chess</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP1TO204/problems/LINCHESS</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/chef_and_linear_chess.py</t>
+  </si>
+  <si>
+    <t>1.maximum element which is less than k and divides k is answer</t>
   </si>
 </sst>
 </file>
@@ -1860,10 +2060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ECFCBC7-B6D8-5D40-8315-E80063A1AE48}">
-  <dimension ref="A1:G191"/>
+  <dimension ref="A1:G215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E170" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F192" sqref="F192"/>
+    <sheetView tabSelected="1" topLeftCell="A207" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E216" sqref="E216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3717,6 +3917,236 @@
         <v>424</v>
       </c>
       <c r="G191" s="4"/>
+    </row>
+    <row r="193" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A193" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C193" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="D193" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
+      <c r="G193" s="2"/>
+    </row>
+    <row r="195" spans="1:7" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A195" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C195" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="D195" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
+    </row>
+    <row r="197" spans="1:7" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A197" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C197" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="D197" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="G197" s="2"/>
+    </row>
+    <row r="199" spans="1:7" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A199" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C199" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="D199" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="F199" s="2"/>
+      <c r="G199" s="2"/>
+    </row>
+    <row r="201" spans="1:7" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A201" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C201" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="D201" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F201" s="2"/>
+      <c r="G201" s="2"/>
+    </row>
+    <row r="203" spans="1:7" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A203" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C203" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="D203" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
+    </row>
+    <row r="205" spans="1:7" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A205" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C205" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="D205" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F205" s="2"/>
+      <c r="G205" s="2"/>
+    </row>
+    <row r="207" spans="1:7" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A207" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C207" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="D207" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="G207" s="2"/>
+    </row>
+    <row r="209" spans="1:7" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A209" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C209" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="D209" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="F209" s="2"/>
+      <c r="G209" s="2"/>
+    </row>
+    <row r="211" spans="1:7" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A211" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C211" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="D211" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="F211" s="2"/>
+      <c r="G211" s="2"/>
+    </row>
+    <row r="213" spans="1:7" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A213" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C213" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="D213" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="F213" s="2"/>
+      <c r="G213" s="2"/>
+    </row>
+    <row r="215" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A215" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C215" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="D215" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="F215" s="2"/>
+      <c r="G215" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3911,6 +4341,30 @@
     <hyperlink ref="D189" r:id="rId189" xr:uid="{ADA48EB9-18EF-0143-909A-E9952E30B776}"/>
     <hyperlink ref="C191" r:id="rId190" xr:uid="{8017D0CE-5882-AF4C-A962-20D278017EA8}"/>
     <hyperlink ref="D191" r:id="rId191" xr:uid="{785878A4-E931-984B-B774-87297CF2D711}"/>
+    <hyperlink ref="C193" r:id="rId192" xr:uid="{94FDE299-48CC-6F41-86D0-BD296863B319}"/>
+    <hyperlink ref="D193" r:id="rId193" xr:uid="{7B1A0D80-DE03-974B-B043-CA109DADEF22}"/>
+    <hyperlink ref="C195" r:id="rId194" xr:uid="{22BABC56-D97E-9C43-AED0-AE92A8973255}"/>
+    <hyperlink ref="D195" r:id="rId195" xr:uid="{D92C239B-6628-A14E-BEFA-7936D8D89510}"/>
+    <hyperlink ref="C197" r:id="rId196" xr:uid="{FA6E584D-88E1-CC48-864D-EEA27AF87052}"/>
+    <hyperlink ref="D197" r:id="rId197" xr:uid="{7744DFC6-2B6D-3F48-8D55-3950C7E9D629}"/>
+    <hyperlink ref="C199" r:id="rId198" xr:uid="{08086B6E-1EB9-414C-B0DF-26724EE2A2B1}"/>
+    <hyperlink ref="D199" r:id="rId199" xr:uid="{00D90CFD-88A7-124A-B85F-08BC143C0029}"/>
+    <hyperlink ref="C201" r:id="rId200" xr:uid="{9CB0D2B0-427A-9542-8869-9EE665ACC8B4}"/>
+    <hyperlink ref="D201" r:id="rId201" xr:uid="{5021DFC4-C721-8747-BD20-DE5538AB1462}"/>
+    <hyperlink ref="C203" r:id="rId202" xr:uid="{4D3F8E6D-AEF4-7F49-BCA0-348E33D54640}"/>
+    <hyperlink ref="D203" r:id="rId203" xr:uid="{EE3D7A8C-9A05-0A44-AB62-436F2D2DBDB0}"/>
+    <hyperlink ref="C205" r:id="rId204" xr:uid="{70A424DC-89FF-534E-8D86-2E93857EBF85}"/>
+    <hyperlink ref="D205" r:id="rId205" xr:uid="{799A50BF-1E06-BF41-B1EB-62C34F490CB2}"/>
+    <hyperlink ref="C207" r:id="rId206" xr:uid="{BBE26844-11F2-1440-A52B-5DAFC60E77EE}"/>
+    <hyperlink ref="D207" r:id="rId207" xr:uid="{AE7A7605-AF50-EC41-9F92-D52278243391}"/>
+    <hyperlink ref="C209" r:id="rId208" xr:uid="{BB225BA5-C775-8345-A63A-960FE1B29AB3}"/>
+    <hyperlink ref="D209" r:id="rId209" xr:uid="{56E3E762-DD01-7D4A-93DD-7BDEA235BCB4}"/>
+    <hyperlink ref="C211" r:id="rId210" xr:uid="{868F5D3C-FC04-4E4C-8676-EDA9D0B8E92F}"/>
+    <hyperlink ref="D211" r:id="rId211" xr:uid="{0B62A20D-0CA3-ED44-B494-252966C209A3}"/>
+    <hyperlink ref="C213" r:id="rId212" xr:uid="{B48E9E31-4D33-D049-999B-F05F5A2AB142}"/>
+    <hyperlink ref="D213" r:id="rId213" xr:uid="{B100F584-5442-FA49-94BC-F2DEC4DB99CF}"/>
+    <hyperlink ref="C215" r:id="rId214" xr:uid="{CE803F9D-FD73-D14C-BF44-ACEA60AB9DB3}"/>
+    <hyperlink ref="D215" r:id="rId215" xr:uid="{A98902DC-F567-684A-9DD6-079B1E454FED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Review_notes.xlsx
+++ b/Review_notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/venkatapraveenkandimalla/praveen_files/cp_coding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1EEF20-D361-384F-92B1-9BFD3E6B18C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A128C9B-26E4-F44E-AC74-0B465871FCFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{D8908FDD-206E-2A41-BB5A-F6564A5F7783}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="514">
   <si>
     <t>Question</t>
   </si>
@@ -1649,6 +1649,122 @@
   </si>
   <si>
     <t>1.maximum element which is less than k and divides k is answer</t>
+  </si>
+  <si>
+    <t>General Programming/Divisibility</t>
+  </si>
+  <si>
+    <t>Make It Divisible</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP2TO301/problems/MAKEDIV3</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/make_it_divisible.py</t>
+  </si>
+  <si>
+    <t>1.Divisiblity is 3 is sum of digits is divisible by 3.
+2.divisibility by 9 is sum of digits is divisible by 9.
+3.since question asked for any number s simple case would be 3 if n==1 else 3000…3 if n&gt;1</t>
+  </si>
+  <si>
+    <t>Indivisible Permutation</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP2TO301/problems/INDIPERM</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/indivisible_permutation.py</t>
+  </si>
+  <si>
+    <t>1.N cannot divide N-1 element</t>
+  </si>
+  <si>
+    <t>General Programming/LCM</t>
+  </si>
+  <si>
+    <t>Minimum Number Of Pizzas</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP2TO301/problems/MINPIZZAS</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/minimum_number_of_pizzas.py</t>
+  </si>
+  <si>
+    <t>1.LCM is the minimum number which is multiple of both N,K
+2.since we need number of pizzas =&gt;divide the result by K to give number of pizzas</t>
+  </si>
+  <si>
+    <t>1.To use LCM in python use
+from math import lcm</t>
+  </si>
+  <si>
+    <t>Alternating Work Days</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP2TO301/problems/ALTER</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/alternating_work_days.py</t>
+  </si>
+  <si>
+    <t>1.'Yes' if and only if P%A==0 and Q%B==0 and abs((P//A)-(P//B))&lt;=1</t>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-in-rotated-sorted-array/</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/leetcode/search_in_rotated_sorted_array.py</t>
+  </si>
+  <si>
+    <t>1.Binary search have both Iterative and Recursive methods</t>
+  </si>
+  <si>
+    <t>Modified Binary Search</t>
+  </si>
+  <si>
+    <t>Find Minimum in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-minimum-in-rotated-sorted-array/</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/leetcode/find_minimum_in_rotated_sorted_array.py</t>
+  </si>
+  <si>
+    <t>1.When ever if the complexity is around O(log n) usually the algorithm is BinarySearch.
+2.In this problem the array is sorted but it is rotated such that it has two sorted array at unknown pivot loaction
+3.To check if we r in left or right sorted array we use arr[left]&lt;=arr[mid] =&gt; we r in left sorted array else its in right
+4.In left sorted array if the target is greater than mid =&gt; target is in right side else if target is less than mid and also 
+less than left most element then its in rightside else its in left side.
+5.similarly on right side</t>
+  </si>
+  <si>
+    <t>1.initialize a mini value to be first element of array.
+update the mini value as min(mini and mid value)
+2.if the mid value &gt;= left value =&gt;the mid value is in left sorted array and the minimum value will be in right sorted array
+since it is rotated anti-clock wise.
+3.else the minimum value can be anywhere on left side of mid value
+4.when we encounter a sorted array left value&lt;=right value =&gt; minimum value can be minimum of mini value and left value.return this value</t>
+  </si>
+  <si>
+    <t>Sleepy Chef</t>
+  </si>
+  <si>
+    <t>https://github.com/kandycrush7717/cp_coding/blob/main/codechef/sleepy_chef.py</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/LP2TO308/problems/FILL01</t>
+  </si>
+  <si>
+    <t>1.increase count of zeros when you see a 0 
+2.make count of zero to 0 when you see a 1.
+3.if count of zero % K is 0 then increase ans by 1 and make count of zeros as 0 .
+4.repeate till end of string</t>
   </si>
 </sst>
 </file>
@@ -1764,7 +1880,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2052,7 +2168,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2060,10 +2176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ECFCBC7-B6D8-5D40-8315-E80063A1AE48}">
-  <dimension ref="A1:G215"/>
+  <dimension ref="A1:G229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E216" sqref="E216"/>
+    <sheetView tabSelected="1" topLeftCell="A225" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E230" sqref="E230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4147,6 +4263,143 @@
       </c>
       <c r="F215" s="2"/>
       <c r="G215" s="2"/>
+    </row>
+    <row r="217" spans="1:7" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A217" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C217" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="D217" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="F217" s="2"/>
+      <c r="G217" s="2"/>
+    </row>
+    <row r="219" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A219" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C219" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="D219" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="F219" s="2"/>
+      <c r="G219" s="2"/>
+    </row>
+    <row r="221" spans="1:7" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A221" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C221" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="D221" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="G221" s="2"/>
+    </row>
+    <row r="223" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A223" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C223" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="D223" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F223" s="2"/>
+      <c r="G223" s="2"/>
+    </row>
+    <row r="225" spans="1:7" s="3" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A225" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="C225" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="D225" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="E225" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="F225" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="G225" s="4"/>
+    </row>
+    <row r="227" spans="1:7" s="3" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+      <c r="A227" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="C227" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="D227" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="F227" s="4"/>
+      <c r="G227" s="4"/>
+    </row>
+    <row r="229" spans="1:7" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A229" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C229" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="D229" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="F229" s="2"/>
+      <c r="G229" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4365,6 +4618,20 @@
     <hyperlink ref="D213" r:id="rId213" xr:uid="{B100F584-5442-FA49-94BC-F2DEC4DB99CF}"/>
     <hyperlink ref="C215" r:id="rId214" xr:uid="{CE803F9D-FD73-D14C-BF44-ACEA60AB9DB3}"/>
     <hyperlink ref="D215" r:id="rId215" xr:uid="{A98902DC-F567-684A-9DD6-079B1E454FED}"/>
+    <hyperlink ref="C217" r:id="rId216" xr:uid="{685B1059-9C96-0B42-9C1B-BF0664C695EF}"/>
+    <hyperlink ref="D217" r:id="rId217" xr:uid="{4B403F88-D07D-0E42-9AC8-402CB80BA1F3}"/>
+    <hyperlink ref="C219" r:id="rId218" xr:uid="{235C78E8-2977-9046-BBC7-E44B785859CD}"/>
+    <hyperlink ref="D219" r:id="rId219" xr:uid="{8FD0D03B-0A5C-2C41-B1A2-1D57D22F83A4}"/>
+    <hyperlink ref="C221" r:id="rId220" xr:uid="{1483177B-8986-DA4A-91C1-F234CCC0C654}"/>
+    <hyperlink ref="D221" r:id="rId221" xr:uid="{30BF8AB6-6978-0F44-829E-2EF6F077A791}"/>
+    <hyperlink ref="C223" r:id="rId222" xr:uid="{2DB06A09-6674-B149-AD27-1DDAA2F1FD77}"/>
+    <hyperlink ref="D223" r:id="rId223" xr:uid="{96AE250D-29C2-374A-8D91-68CE6C48E87E}"/>
+    <hyperlink ref="C225" r:id="rId224" xr:uid="{286467F6-0052-4C47-973D-1D5015A50257}"/>
+    <hyperlink ref="D225" r:id="rId225" xr:uid="{068E6DBF-5337-2A49-AF72-6514A8F05837}"/>
+    <hyperlink ref="C227" r:id="rId226" xr:uid="{3540F27F-99A0-9742-A476-561758B2BB36}"/>
+    <hyperlink ref="D227" r:id="rId227" xr:uid="{3404D7D0-5BB8-BA45-B595-E8F897BF9BF0}"/>
+    <hyperlink ref="D229" r:id="rId228" xr:uid="{DFBD707F-26D4-F043-B39B-91DC13F122E8}"/>
+    <hyperlink ref="C229" r:id="rId229" xr:uid="{056D2D65-72D9-7240-8103-57A3F585E261}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
